--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -2,18 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="390" windowWidth="13170" windowHeight="9855"/>
+    <workbookView xWindow="17625" yWindow="5835" windowWidth="19680" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
     <sheet name="Help" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IQ$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IQ$29</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -418,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -477,9 +482,6 @@
     <t>Department of Mechanical Engineering</t>
   </si>
   <si>
-    <t>Write Presentation</t>
-  </si>
-  <si>
     <t>Write Report</t>
   </si>
   <si>
@@ -493,9 +495,6 @@
   </si>
   <si>
     <t>Frame Design</t>
-  </si>
-  <si>
-    <t>Sensor Research</t>
   </si>
   <si>
     <t>Mounting Design</t>
@@ -533,6 +532,46 @@
   <si>
     <t>TBA</t>
   </si>
+  <si>
+    <t>Sensor Research</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actuator Research</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Presentation 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background Research</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrew</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anderson</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peripherals Research</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client Presentation 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Design Concepts</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -549,7 +588,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -571,7 +609,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -873,6 +910,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -882,224 +922,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -1152,398 +981,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="63"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="23"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1618,6 +1057,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$K$10" horiz="1" max="100" page="4" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3071,13 +2514,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1">
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IQ30"/>
+  <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:CC31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:CH36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3089,7 +2532,7 @@
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="227" width="0.42578125" customWidth="1"/>
     <col min="228" max="251" width="0.42578125" style="7" customWidth="1"/>
@@ -3116,7 +2559,7 @@
     </row>
     <row r="3" spans="1:251" ht="14.25">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:251">
@@ -3147,7 +2590,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -4176,390 +3619,390 @@
         <v>0</v>
       </c>
       <c r="K11" s="32"/>
-      <c r="L11" s="50" t="str">
+      <c r="L11" s="51" t="str">
         <f ca="1">TEXT(L10,"m/d/yy")</f>
         <v>5/7/12</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="50" t="str">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="51" t="str">
         <f ca="1">TEXT(Q10,"m/d/yy")</f>
         <v>5/14/12</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="50" t="str">
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="51" t="str">
         <f ca="1">TEXT(V10,"m/d/yy")</f>
         <v>5/21/12</v>
       </c>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="50" t="str">
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="51" t="str">
         <f ca="1">TEXT(AA10,"m/d/yy")</f>
         <v>5/28/12</v>
       </c>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="52"/>
-      <c r="AF11" s="50" t="str">
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="51" t="str">
         <f ca="1">TEXT(AF10,"m/d/yy")</f>
         <v>6/4/12</v>
       </c>
-      <c r="AG11" s="51"/>
-      <c r="AH11" s="51"/>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="52"/>
-      <c r="AK11" s="50" t="str">
+      <c r="AG11" s="52"/>
+      <c r="AH11" s="52"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="51" t="str">
         <f ca="1">TEXT(AK10,"m/d/yy")</f>
         <v>6/11/12</v>
       </c>
-      <c r="AL11" s="51"/>
-      <c r="AM11" s="51"/>
-      <c r="AN11" s="51"/>
-      <c r="AO11" s="52"/>
-      <c r="AP11" s="50" t="str">
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
+      <c r="AN11" s="52"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="51" t="str">
         <f ca="1">TEXT(AP10,"m/d/yy")</f>
         <v>6/18/12</v>
       </c>
-      <c r="AQ11" s="51"/>
-      <c r="AR11" s="51"/>
-      <c r="AS11" s="51"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="50" t="str">
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="51" t="str">
         <f ca="1">TEXT(AU10,"m/d/yy")</f>
         <v>6/25/12</v>
       </c>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="51"/>
-      <c r="AX11" s="51"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="50" t="str">
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="51" t="str">
         <f ca="1">TEXT(AZ10,"m/d/yy")</f>
         <v>7/2/12</v>
       </c>
-      <c r="BA11" s="51"/>
-      <c r="BB11" s="51"/>
-      <c r="BC11" s="51"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="50" t="str">
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="52"/>
+      <c r="BC11" s="52"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="51" t="str">
         <f ca="1">TEXT(BE10,"m/d/yy")</f>
         <v>7/9/12</v>
       </c>
-      <c r="BF11" s="51"/>
-      <c r="BG11" s="51"/>
-      <c r="BH11" s="51"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="50" t="str">
+      <c r="BF11" s="52"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="52"/>
+      <c r="BI11" s="53"/>
+      <c r="BJ11" s="51" t="str">
         <f ca="1">TEXT(BJ10,"m/d/yy")</f>
         <v>7/16/12</v>
       </c>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
-      <c r="BM11" s="51"/>
-      <c r="BN11" s="52"/>
-      <c r="BO11" s="50" t="str">
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="53"/>
+      <c r="BO11" s="51" t="str">
         <f ca="1">TEXT(BO10,"m/d/yy")</f>
         <v>7/23/12</v>
       </c>
-      <c r="BP11" s="51"/>
-      <c r="BQ11" s="51"/>
-      <c r="BR11" s="51"/>
-      <c r="BS11" s="52"/>
-      <c r="BT11" s="50" t="str">
+      <c r="BP11" s="52"/>
+      <c r="BQ11" s="52"/>
+      <c r="BR11" s="52"/>
+      <c r="BS11" s="53"/>
+      <c r="BT11" s="51" t="str">
         <f ca="1">TEXT(BT10,"m/d/yy")</f>
         <v>7/30/12</v>
       </c>
-      <c r="BU11" s="51"/>
-      <c r="BV11" s="51"/>
-      <c r="BW11" s="51"/>
-      <c r="BX11" s="52"/>
-      <c r="BY11" s="50" t="str">
+      <c r="BU11" s="52"/>
+      <c r="BV11" s="52"/>
+      <c r="BW11" s="52"/>
+      <c r="BX11" s="53"/>
+      <c r="BY11" s="51" t="str">
         <f ca="1">TEXT(BY10,"m/d/yy")</f>
         <v>8/6/12</v>
       </c>
-      <c r="BZ11" s="51"/>
-      <c r="CA11" s="51"/>
-      <c r="CB11" s="51"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="50" t="str">
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="53"/>
+      <c r="CD11" s="51" t="str">
         <f ca="1">TEXT(CD10,"m/d/yy")</f>
         <v>8/13/12</v>
       </c>
-      <c r="CE11" s="51"/>
-      <c r="CF11" s="51"/>
-      <c r="CG11" s="51"/>
-      <c r="CH11" s="52"/>
-      <c r="CI11" s="50" t="str">
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="52"/>
+      <c r="CG11" s="52"/>
+      <c r="CH11" s="53"/>
+      <c r="CI11" s="51" t="str">
         <f ca="1">TEXT(CI10,"m/d/yy")</f>
         <v>8/20/12</v>
       </c>
-      <c r="CJ11" s="51"/>
-      <c r="CK11" s="51"/>
-      <c r="CL11" s="51"/>
-      <c r="CM11" s="52"/>
-      <c r="CN11" s="50" t="str">
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
+      <c r="CL11" s="52"/>
+      <c r="CM11" s="53"/>
+      <c r="CN11" s="51" t="str">
         <f ca="1">TEXT(CN10,"m/d/yy")</f>
         <v>8/27/12</v>
       </c>
-      <c r="CO11" s="51"/>
-      <c r="CP11" s="51"/>
-      <c r="CQ11" s="51"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="50" t="str">
+      <c r="CO11" s="52"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="53"/>
+      <c r="CS11" s="51" t="str">
         <f ca="1">TEXT(CS10,"m/d/yy")</f>
         <v>9/3/12</v>
       </c>
-      <c r="CT11" s="51"/>
-      <c r="CU11" s="51"/>
-      <c r="CV11" s="51"/>
-      <c r="CW11" s="52"/>
-      <c r="CX11" s="50" t="str">
+      <c r="CT11" s="52"/>
+      <c r="CU11" s="52"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="53"/>
+      <c r="CX11" s="51" t="str">
         <f ca="1">TEXT(CX10,"m/d/yy")</f>
         <v>9/10/12</v>
       </c>
-      <c r="CY11" s="51"/>
-      <c r="CZ11" s="51"/>
-      <c r="DA11" s="51"/>
-      <c r="DB11" s="52"/>
-      <c r="DC11" s="50" t="str">
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
+      <c r="DA11" s="52"/>
+      <c r="DB11" s="53"/>
+      <c r="DC11" s="51" t="str">
         <f ca="1">TEXT(DC10,"m/d/yy")</f>
         <v>9/17/12</v>
       </c>
-      <c r="DD11" s="51"/>
-      <c r="DE11" s="51"/>
-      <c r="DF11" s="51"/>
-      <c r="DG11" s="52"/>
-      <c r="DH11" s="50" t="str">
+      <c r="DD11" s="52"/>
+      <c r="DE11" s="52"/>
+      <c r="DF11" s="52"/>
+      <c r="DG11" s="53"/>
+      <c r="DH11" s="51" t="str">
         <f ca="1">TEXT(DH10,"m/d/yy")</f>
         <v>9/24/12</v>
       </c>
-      <c r="DI11" s="51"/>
-      <c r="DJ11" s="51"/>
-      <c r="DK11" s="51"/>
-      <c r="DL11" s="52"/>
-      <c r="DM11" s="50" t="str">
+      <c r="DI11" s="52"/>
+      <c r="DJ11" s="52"/>
+      <c r="DK11" s="52"/>
+      <c r="DL11" s="53"/>
+      <c r="DM11" s="51" t="str">
         <f ca="1">TEXT(DM10,"m/d/yy")</f>
         <v>10/1/12</v>
       </c>
-      <c r="DN11" s="51"/>
-      <c r="DO11" s="51"/>
-      <c r="DP11" s="51"/>
-      <c r="DQ11" s="52"/>
-      <c r="DR11" s="50" t="str">
+      <c r="DN11" s="52"/>
+      <c r="DO11" s="52"/>
+      <c r="DP11" s="52"/>
+      <c r="DQ11" s="53"/>
+      <c r="DR11" s="51" t="str">
         <f ca="1">TEXT(DR10,"m/d/yy")</f>
         <v>10/8/12</v>
       </c>
-      <c r="DS11" s="51"/>
-      <c r="DT11" s="51"/>
-      <c r="DU11" s="51"/>
-      <c r="DV11" s="52"/>
-      <c r="DW11" s="50" t="str">
+      <c r="DS11" s="52"/>
+      <c r="DT11" s="52"/>
+      <c r="DU11" s="52"/>
+      <c r="DV11" s="53"/>
+      <c r="DW11" s="51" t="str">
         <f ca="1">TEXT(DW10,"m/d/yy")</f>
         <v>10/15/12</v>
       </c>
-      <c r="DX11" s="51"/>
-      <c r="DY11" s="51"/>
-      <c r="DZ11" s="51"/>
-      <c r="EA11" s="52"/>
-      <c r="EB11" s="50" t="str">
+      <c r="DX11" s="52"/>
+      <c r="DY11" s="52"/>
+      <c r="DZ11" s="52"/>
+      <c r="EA11" s="53"/>
+      <c r="EB11" s="51" t="str">
         <f ca="1">TEXT(EB10,"m/d/yy")</f>
         <v>10/22/12</v>
       </c>
-      <c r="EC11" s="51"/>
-      <c r="ED11" s="51"/>
-      <c r="EE11" s="51"/>
-      <c r="EF11" s="52"/>
-      <c r="EG11" s="50" t="str">
+      <c r="EC11" s="52"/>
+      <c r="ED11" s="52"/>
+      <c r="EE11" s="52"/>
+      <c r="EF11" s="53"/>
+      <c r="EG11" s="51" t="str">
         <f ca="1">TEXT(EG10,"m/d/yy")</f>
         <v>10/29/12</v>
       </c>
-      <c r="EH11" s="51"/>
-      <c r="EI11" s="51"/>
-      <c r="EJ11" s="51"/>
-      <c r="EK11" s="52"/>
-      <c r="EL11" s="50" t="str">
+      <c r="EH11" s="52"/>
+      <c r="EI11" s="52"/>
+      <c r="EJ11" s="52"/>
+      <c r="EK11" s="53"/>
+      <c r="EL11" s="51" t="str">
         <f ca="1">TEXT(EL10,"m/d/yy")</f>
         <v>11/5/12</v>
       </c>
-      <c r="EM11" s="51"/>
-      <c r="EN11" s="51"/>
-      <c r="EO11" s="51"/>
-      <c r="EP11" s="52"/>
-      <c r="EQ11" s="50" t="str">
+      <c r="EM11" s="52"/>
+      <c r="EN11" s="52"/>
+      <c r="EO11" s="52"/>
+      <c r="EP11" s="53"/>
+      <c r="EQ11" s="51" t="str">
         <f ca="1">TEXT(EQ10,"m/d/yy")</f>
         <v>11/12/12</v>
       </c>
-      <c r="ER11" s="51"/>
-      <c r="ES11" s="51"/>
-      <c r="ET11" s="51"/>
-      <c r="EU11" s="52"/>
-      <c r="EV11" s="50" t="str">
+      <c r="ER11" s="52"/>
+      <c r="ES11" s="52"/>
+      <c r="ET11" s="52"/>
+      <c r="EU11" s="53"/>
+      <c r="EV11" s="51" t="str">
         <f ca="1">TEXT(EV10,"m/d/yy")</f>
         <v>11/19/12</v>
       </c>
-      <c r="EW11" s="51"/>
-      <c r="EX11" s="51"/>
-      <c r="EY11" s="51"/>
-      <c r="EZ11" s="52"/>
-      <c r="FA11" s="50" t="str">
+      <c r="EW11" s="52"/>
+      <c r="EX11" s="52"/>
+      <c r="EY11" s="52"/>
+      <c r="EZ11" s="53"/>
+      <c r="FA11" s="51" t="str">
         <f ca="1">TEXT(FA10,"m/d/yy")</f>
         <v>11/26/12</v>
       </c>
-      <c r="FB11" s="51"/>
-      <c r="FC11" s="51"/>
-      <c r="FD11" s="51"/>
-      <c r="FE11" s="52"/>
-      <c r="FF11" s="50" t="str">
+      <c r="FB11" s="52"/>
+      <c r="FC11" s="52"/>
+      <c r="FD11" s="52"/>
+      <c r="FE11" s="53"/>
+      <c r="FF11" s="51" t="str">
         <f ca="1">TEXT(FF10,"m/d/yy")</f>
         <v>12/3/12</v>
       </c>
-      <c r="FG11" s="51"/>
-      <c r="FH11" s="51"/>
-      <c r="FI11" s="51"/>
-      <c r="FJ11" s="52"/>
-      <c r="FK11" s="50" t="str">
+      <c r="FG11" s="52"/>
+      <c r="FH11" s="52"/>
+      <c r="FI11" s="52"/>
+      <c r="FJ11" s="53"/>
+      <c r="FK11" s="51" t="str">
         <f ca="1">TEXT(FK10,"m/d/yy")</f>
         <v>12/10/12</v>
       </c>
-      <c r="FL11" s="51"/>
-      <c r="FM11" s="51"/>
-      <c r="FN11" s="51"/>
-      <c r="FO11" s="52"/>
-      <c r="FP11" s="50" t="str">
+      <c r="FL11" s="52"/>
+      <c r="FM11" s="52"/>
+      <c r="FN11" s="52"/>
+      <c r="FO11" s="53"/>
+      <c r="FP11" s="51" t="str">
         <f ca="1">TEXT(FP10,"m/d/yy")</f>
         <v>12/17/12</v>
       </c>
-      <c r="FQ11" s="51"/>
-      <c r="FR11" s="51"/>
-      <c r="FS11" s="51"/>
-      <c r="FT11" s="52"/>
-      <c r="FU11" s="50" t="str">
+      <c r="FQ11" s="52"/>
+      <c r="FR11" s="52"/>
+      <c r="FS11" s="52"/>
+      <c r="FT11" s="53"/>
+      <c r="FU11" s="51" t="str">
         <f ca="1">TEXT(FU10,"m/d/yy")</f>
         <v>12/24/12</v>
       </c>
-      <c r="FV11" s="51"/>
-      <c r="FW11" s="51"/>
-      <c r="FX11" s="51"/>
-      <c r="FY11" s="52"/>
-      <c r="FZ11" s="50" t="str">
+      <c r="FV11" s="52"/>
+      <c r="FW11" s="52"/>
+      <c r="FX11" s="52"/>
+      <c r="FY11" s="53"/>
+      <c r="FZ11" s="51" t="str">
         <f ca="1">TEXT(FZ10,"m/d/yy")</f>
         <v>12/31/12</v>
       </c>
-      <c r="GA11" s="51"/>
-      <c r="GB11" s="51"/>
-      <c r="GC11" s="51"/>
-      <c r="GD11" s="52"/>
-      <c r="GE11" s="50" t="str">
+      <c r="GA11" s="52"/>
+      <c r="GB11" s="52"/>
+      <c r="GC11" s="52"/>
+      <c r="GD11" s="53"/>
+      <c r="GE11" s="51" t="str">
         <f ca="1">TEXT(GE10,"m/d/yy")</f>
         <v>1/7/13</v>
       </c>
-      <c r="GF11" s="51"/>
-      <c r="GG11" s="51"/>
-      <c r="GH11" s="51"/>
-      <c r="GI11" s="52"/>
-      <c r="GJ11" s="50" t="str">
+      <c r="GF11" s="52"/>
+      <c r="GG11" s="52"/>
+      <c r="GH11" s="52"/>
+      <c r="GI11" s="53"/>
+      <c r="GJ11" s="51" t="str">
         <f ca="1">TEXT(GJ10,"m/d/yy")</f>
         <v>1/14/13</v>
       </c>
-      <c r="GK11" s="51"/>
-      <c r="GL11" s="51"/>
-      <c r="GM11" s="51"/>
-      <c r="GN11" s="52"/>
-      <c r="GO11" s="50" t="str">
+      <c r="GK11" s="52"/>
+      <c r="GL11" s="52"/>
+      <c r="GM11" s="52"/>
+      <c r="GN11" s="53"/>
+      <c r="GO11" s="51" t="str">
         <f ca="1">TEXT(GO10,"m/d/yy")</f>
         <v>1/21/13</v>
       </c>
-      <c r="GP11" s="51"/>
-      <c r="GQ11" s="51"/>
-      <c r="GR11" s="51"/>
-      <c r="GS11" s="52"/>
-      <c r="GT11" s="50" t="str">
+      <c r="GP11" s="52"/>
+      <c r="GQ11" s="52"/>
+      <c r="GR11" s="52"/>
+      <c r="GS11" s="53"/>
+      <c r="GT11" s="51" t="str">
         <f ca="1">TEXT(GT10,"m/d/yy")</f>
         <v>1/28/13</v>
       </c>
-      <c r="GU11" s="51"/>
-      <c r="GV11" s="51"/>
-      <c r="GW11" s="51"/>
-      <c r="GX11" s="52"/>
-      <c r="GY11" s="50" t="str">
+      <c r="GU11" s="52"/>
+      <c r="GV11" s="52"/>
+      <c r="GW11" s="52"/>
+      <c r="GX11" s="53"/>
+      <c r="GY11" s="51" t="str">
         <f ca="1">TEXT(GY10,"m/d/yy")</f>
         <v>2/4/13</v>
       </c>
-      <c r="GZ11" s="51"/>
-      <c r="HA11" s="51"/>
-      <c r="HB11" s="51"/>
-      <c r="HC11" s="52"/>
-      <c r="HD11" s="50" t="str">
+      <c r="GZ11" s="52"/>
+      <c r="HA11" s="52"/>
+      <c r="HB11" s="52"/>
+      <c r="HC11" s="53"/>
+      <c r="HD11" s="51" t="str">
         <f ca="1">TEXT(HD10,"m/d/yy")</f>
         <v>2/11/13</v>
       </c>
-      <c r="HE11" s="51"/>
-      <c r="HF11" s="51"/>
-      <c r="HG11" s="51"/>
-      <c r="HH11" s="52"/>
-      <c r="HI11" s="50" t="str">
+      <c r="HE11" s="52"/>
+      <c r="HF11" s="52"/>
+      <c r="HG11" s="52"/>
+      <c r="HH11" s="53"/>
+      <c r="HI11" s="51" t="str">
         <f ca="1">TEXT(HI10,"m/d/yy")</f>
         <v>2/18/13</v>
       </c>
-      <c r="HJ11" s="51"/>
-      <c r="HK11" s="51"/>
-      <c r="HL11" s="51"/>
-      <c r="HM11" s="52"/>
-      <c r="HN11" s="50" t="str">
+      <c r="HJ11" s="52"/>
+      <c r="HK11" s="52"/>
+      <c r="HL11" s="52"/>
+      <c r="HM11" s="53"/>
+      <c r="HN11" s="51" t="str">
         <f ca="1">TEXT(HN10,"m/d/yy")</f>
         <v>2/25/13</v>
       </c>
-      <c r="HO11" s="51"/>
-      <c r="HP11" s="51"/>
-      <c r="HQ11" s="51"/>
-      <c r="HR11" s="52"/>
-      <c r="HS11" s="50" t="str">
+      <c r="HO11" s="52"/>
+      <c r="HP11" s="52"/>
+      <c r="HQ11" s="52"/>
+      <c r="HR11" s="53"/>
+      <c r="HS11" s="51" t="str">
         <f ca="1">TEXT(HS10,"m/d/yy")</f>
         <v>3/4/13</v>
       </c>
-      <c r="HT11" s="51"/>
-      <c r="HU11" s="51"/>
-      <c r="HV11" s="51"/>
-      <c r="HW11" s="52"/>
-      <c r="HX11" s="50" t="str">
+      <c r="HT11" s="52"/>
+      <c r="HU11" s="52"/>
+      <c r="HV11" s="52"/>
+      <c r="HW11" s="53"/>
+      <c r="HX11" s="51" t="str">
         <f ca="1">TEXT(HX10,"m/d/yy")</f>
         <v>3/11/13</v>
       </c>
-      <c r="HY11" s="51"/>
-      <c r="HZ11" s="51"/>
-      <c r="IA11" s="51"/>
-      <c r="IB11" s="52"/>
-      <c r="IC11" s="50" t="str">
+      <c r="HY11" s="52"/>
+      <c r="HZ11" s="52"/>
+      <c r="IA11" s="52"/>
+      <c r="IB11" s="53"/>
+      <c r="IC11" s="51" t="str">
         <f ca="1">TEXT(IC10,"m/d/yy")</f>
         <v>3/18/13</v>
       </c>
-      <c r="ID11" s="51"/>
-      <c r="IE11" s="51"/>
-      <c r="IF11" s="51"/>
-      <c r="IG11" s="52"/>
-      <c r="IH11" s="50" t="str">
+      <c r="ID11" s="52"/>
+      <c r="IE11" s="52"/>
+      <c r="IF11" s="52"/>
+      <c r="IG11" s="53"/>
+      <c r="IH11" s="51" t="str">
         <f ca="1">TEXT(IH10,"m/d/yy")</f>
         <v>3/25/13</v>
       </c>
-      <c r="II11" s="51"/>
-      <c r="IJ11" s="51"/>
-      <c r="IK11" s="51"/>
-      <c r="IL11" s="52"/>
-      <c r="IM11" s="50" t="str">
+      <c r="II11" s="52"/>
+      <c r="IJ11" s="52"/>
+      <c r="IK11" s="52"/>
+      <c r="IL11" s="53"/>
+      <c r="IM11" s="51" t="str">
         <f ca="1">TEXT(IM10,"m/d/yy")</f>
         <v>4/1/13</v>
       </c>
-      <c r="IN11" s="51"/>
-      <c r="IO11" s="51"/>
-      <c r="IP11" s="51"/>
-      <c r="IQ11" s="52"/>
+      <c r="IN11" s="52"/>
+      <c r="IO11" s="52"/>
+      <c r="IP11" s="52"/>
+      <c r="IQ11" s="53"/>
     </row>
     <row r="12" spans="1:251" s="22" customFormat="1" ht="10.5">
       <c r="A12" s="18"/>
@@ -4570,7 +4013,7 @@
     <row r="13" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A13" s="47"/>
       <c r="B13" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36">
@@ -4578,61 +4021,61 @@
       </c>
       <c r="E13" s="13">
         <f>D13+F13-1</f>
-        <v>41054</v>
+        <v>41055</v>
       </c>
       <c r="F13" s="40">
-        <f>MAX(E14:E17)-D13 +1</f>
-        <v>19</v>
+        <f>MAX(E15:E22)-D13 +1</f>
+        <v>20</v>
       </c>
       <c r="G13" s="35">
-        <f>SUMPRODUCT(F14:F17,G14:G17)/SUM(F14:F17)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
+        <v>7.0588235294117658E-3</v>
       </c>
       <c r="H13" s="29">
-        <f t="shared" ref="H13:H15" si="0">NETWORKDAYS(D13,E13)</f>
+        <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
         <v>15</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" ref="I13:I15" si="1">ROUNDDOWN(G13*F13,0)</f>
+        <f t="shared" ref="I13:I17" si="1">ROUNDDOWN(G13*F13,0)</f>
         <v>0</v>
       </c>
       <c r="J13" s="29">
         <f>F13-I13</f>
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="14" spans="1:251" s="23" customFormat="1" ht="19.5">
       <c r="A14" s="19"/>
-      <c r="B14" s="53" t="s">
-        <v>24</v>
+      <c r="B14" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="36">
         <v>41043</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" ref="E14:E15" si="2">D14+F14-1</f>
-        <v>41054</v>
+        <f t="shared" ref="E14" si="2">D14+F14-1</f>
+        <v>41045</v>
       </c>
       <c r="F14" s="41">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G14" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="30">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f t="shared" ref="H14" si="3">NETWORKDAYS(D14,E14)</f>
+        <v>3</v>
       </c>
       <c r="I14" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="I14" si="4">ROUNDDOWN(G14*F14,0)</f>
+        <v>1</v>
       </c>
       <c r="J14" s="30">
-        <f t="shared" ref="J14:J15" si="3">F14-I14</f>
-        <v>12</v>
+        <f t="shared" ref="J14" si="5">F14-I14</f>
+        <v>2</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -4878,36 +4321,36 @@
     </row>
     <row r="15" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A15" s="19"/>
-      <c r="B15" s="53" t="s">
-        <v>25</v>
+      <c r="B15" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="36">
         <v>41043</v>
       </c>
       <c r="E15" s="11">
-        <f t="shared" si="2"/>
-        <v>41052</v>
+        <f t="shared" ref="E15:E17" si="6">D15+F15-1</f>
+        <v>41048</v>
       </c>
       <c r="F15" s="41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G15" s="34">
         <v>0</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I15" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="30">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" ref="J15:J17" si="7">F15-I15</f>
+        <v>6</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -5152,19 +4595,19 @@
       <c r="IQ15" s="21"/>
     </row>
     <row r="16" spans="1:251" s="23" customFormat="1" ht="10.5">
-      <c r="A16" s="49"/>
-      <c r="B16" s="53" t="s">
-        <v>26</v>
+      <c r="A16" s="19"/>
+      <c r="B16" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" s="36">
-        <v>41045</v>
+        <v>41043</v>
       </c>
       <c r="E16" s="11">
-        <f t="shared" ref="E16:E17" si="4">D16+F16-1</f>
-        <v>41054</v>
+        <f t="shared" ref="E16" si="8">D16+F16-1</f>
+        <v>41052</v>
       </c>
       <c r="F16" s="41">
         <v>10</v>
@@ -5173,15 +4616,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="30">
-        <f t="shared" ref="H16:H18" si="5">NETWORKDAYS(D16,E16)</f>
+        <f t="shared" ref="H16" si="9">NETWORKDAYS(D16,E16)</f>
         <v>8</v>
       </c>
       <c r="I16" s="12">
-        <f t="shared" ref="I16:I18" si="6">ROUNDDOWN(G16*F16,0)</f>
+        <f t="shared" ref="I16" si="10">ROUNDDOWN(G16*F16,0)</f>
         <v>0</v>
       </c>
       <c r="J16" s="30">
-        <f t="shared" ref="J16:J17" si="7">F16-I16</f>
+        <f t="shared" ref="J16" si="11">F16-I16</f>
         <v>10</v>
       </c>
       <c r="K16" s="21"/>
@@ -5427,37 +4870,37 @@
       <c r="IQ16" s="21"/>
     </row>
     <row r="17" spans="1:251" s="23" customFormat="1" ht="10.5">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53" t="s">
-        <v>20</v>
+      <c r="A17" s="19"/>
+      <c r="B17" s="50" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D17" s="36">
-        <v>41036</v>
+        <v>41043</v>
       </c>
       <c r="E17" s="11">
-        <f t="shared" si="4"/>
-        <v>41054</v>
+        <f t="shared" si="6"/>
+        <v>41052</v>
       </c>
       <c r="F17" s="41">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G17" s="34">
         <v>0</v>
       </c>
       <c r="H17" s="30">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="I17" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="30">
         <f t="shared" si="7"/>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -5701,72 +5144,313 @@
       <c r="IP17" s="21"/>
       <c r="IQ17" s="21"/>
     </row>
-    <row r="18" spans="1:251" s="20" customFormat="1" ht="10.5">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="43"/>
+    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.5">
+      <c r="A18" s="19"/>
+      <c r="B18" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="D18" s="36">
+        <v>41043</v>
+      </c>
+      <c r="E18" s="11">
+        <f>D18+F18-1</f>
         <v>41054</v>
       </c>
-      <c r="E18" s="13">
-        <f>D18+F18-1</f>
-        <v>41089</v>
-      </c>
-      <c r="F18" s="40">
-        <f>MAX(E19:E23)-D18 +1</f>
-        <v>36</v>
-      </c>
-      <c r="G18" s="35">
-        <f>SUMPRODUCT(F19:F23,G19:G23)/SUM(F19:F23)</f>
+      <c r="F18" s="41">
+        <v>12</v>
+      </c>
+      <c r="G18" s="34">
+        <v>0.05</v>
+      </c>
+      <c r="H18" s="30">
+        <f>NETWORKDAYS(D18,E18)</f>
+        <v>10</v>
+      </c>
+      <c r="I18" s="12">
+        <f>ROUNDDOWN(G18*F18,0)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="29">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="J18" s="30">
         <f>F18-I18</f>
-        <v>36</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21"/>
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21"/>
+      <c r="AO18" s="21"/>
+      <c r="AP18" s="21"/>
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21"/>
+      <c r="AS18" s="21"/>
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="21"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="21"/>
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21"/>
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21"/>
+      <c r="BG18" s="21"/>
+      <c r="BH18" s="21"/>
+      <c r="BI18" s="21"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="21"/>
+      <c r="BL18" s="21"/>
+      <c r="BM18" s="21"/>
+      <c r="BN18" s="21"/>
+      <c r="BO18" s="21"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="21"/>
+      <c r="BR18" s="21"/>
+      <c r="BS18" s="21"/>
+      <c r="BT18" s="21"/>
+      <c r="BU18" s="21"/>
+      <c r="BV18" s="21"/>
+      <c r="BW18" s="21"/>
+      <c r="BX18" s="21"/>
+      <c r="BY18" s="21"/>
+      <c r="BZ18" s="21"/>
+      <c r="CA18" s="21"/>
+      <c r="CB18" s="21"/>
+      <c r="CC18" s="21"/>
+      <c r="CD18" s="21"/>
+      <c r="CE18" s="21"/>
+      <c r="CF18" s="21"/>
+      <c r="CG18" s="21"/>
+      <c r="CH18" s="21"/>
+      <c r="CI18" s="21"/>
+      <c r="CJ18" s="21"/>
+      <c r="CK18" s="21"/>
+      <c r="CL18" s="21"/>
+      <c r="CM18" s="21"/>
+      <c r="CN18" s="21"/>
+      <c r="CO18" s="21"/>
+      <c r="CP18" s="21"/>
+      <c r="CQ18" s="21"/>
+      <c r="CR18" s="21"/>
+      <c r="CS18" s="21"/>
+      <c r="CT18" s="21"/>
+      <c r="CU18" s="21"/>
+      <c r="CV18" s="21"/>
+      <c r="CW18" s="21"/>
+      <c r="CX18" s="21"/>
+      <c r="CY18" s="21"/>
+      <c r="CZ18" s="21"/>
+      <c r="DA18" s="21"/>
+      <c r="DB18" s="21"/>
+      <c r="DC18" s="21"/>
+      <c r="DD18" s="21"/>
+      <c r="DE18" s="21"/>
+      <c r="DF18" s="21"/>
+      <c r="DG18" s="21"/>
+      <c r="DH18" s="21"/>
+      <c r="DI18" s="21"/>
+      <c r="DJ18" s="21"/>
+      <c r="DK18" s="21"/>
+      <c r="DL18" s="21"/>
+      <c r="DM18" s="21"/>
+      <c r="DN18" s="21"/>
+      <c r="DO18" s="21"/>
+      <c r="DP18" s="21"/>
+      <c r="DQ18" s="21"/>
+      <c r="DR18" s="21"/>
+      <c r="DS18" s="21"/>
+      <c r="DT18" s="21"/>
+      <c r="DU18" s="21"/>
+      <c r="DV18" s="21"/>
+      <c r="DW18" s="21"/>
+      <c r="DX18" s="21"/>
+      <c r="DY18" s="21"/>
+      <c r="DZ18" s="21"/>
+      <c r="EA18" s="21"/>
+      <c r="EB18" s="21"/>
+      <c r="EC18" s="21"/>
+      <c r="ED18" s="21"/>
+      <c r="EE18" s="21"/>
+      <c r="EF18" s="21"/>
+      <c r="EG18" s="21"/>
+      <c r="EH18" s="21"/>
+      <c r="EI18" s="21"/>
+      <c r="EJ18" s="21"/>
+      <c r="EK18" s="21"/>
+      <c r="EL18" s="21"/>
+      <c r="EM18" s="21"/>
+      <c r="EN18" s="21"/>
+      <c r="EO18" s="21"/>
+      <c r="EP18" s="21"/>
+      <c r="EQ18" s="21"/>
+      <c r="ER18" s="21"/>
+      <c r="ES18" s="21"/>
+      <c r="ET18" s="21"/>
+      <c r="EU18" s="21"/>
+      <c r="EV18" s="21"/>
+      <c r="EW18" s="21"/>
+      <c r="EX18" s="21"/>
+      <c r="EY18" s="21"/>
+      <c r="EZ18" s="21"/>
+      <c r="FA18" s="21"/>
+      <c r="FB18" s="21"/>
+      <c r="FC18" s="21"/>
+      <c r="FD18" s="21"/>
+      <c r="FE18" s="21"/>
+      <c r="FF18" s="21"/>
+      <c r="FG18" s="21"/>
+      <c r="FH18" s="21"/>
+      <c r="FI18" s="21"/>
+      <c r="FJ18" s="21"/>
+      <c r="FK18" s="21"/>
+      <c r="FL18" s="21"/>
+      <c r="FM18" s="21"/>
+      <c r="FN18" s="21"/>
+      <c r="FO18" s="21"/>
+      <c r="FP18" s="21"/>
+      <c r="FQ18" s="21"/>
+      <c r="FR18" s="21"/>
+      <c r="FS18" s="21"/>
+      <c r="FT18" s="21"/>
+      <c r="FU18" s="21"/>
+      <c r="FV18" s="21"/>
+      <c r="FW18" s="21"/>
+      <c r="FX18" s="21"/>
+      <c r="FY18" s="21"/>
+      <c r="FZ18" s="21"/>
+      <c r="GA18" s="21"/>
+      <c r="GB18" s="21"/>
+      <c r="GC18" s="21"/>
+      <c r="GD18" s="21"/>
+      <c r="GE18" s="21"/>
+      <c r="GF18" s="21"/>
+      <c r="GG18" s="21"/>
+      <c r="GH18" s="21"/>
+      <c r="GI18" s="21"/>
+      <c r="GJ18" s="21"/>
+      <c r="GK18" s="21"/>
+      <c r="GL18" s="21"/>
+      <c r="GM18" s="21"/>
+      <c r="GN18" s="21"/>
+      <c r="GO18" s="21"/>
+      <c r="GP18" s="21"/>
+      <c r="GQ18" s="21"/>
+      <c r="GR18" s="21"/>
+      <c r="GS18" s="21"/>
+      <c r="GT18" s="21"/>
+      <c r="GU18" s="21"/>
+      <c r="GV18" s="21"/>
+      <c r="GW18" s="21"/>
+      <c r="GX18" s="21"/>
+      <c r="GY18" s="21"/>
+      <c r="GZ18" s="21"/>
+      <c r="HA18" s="21"/>
+      <c r="HB18" s="21"/>
+      <c r="HC18" s="21"/>
+      <c r="HD18" s="21"/>
+      <c r="HE18" s="21"/>
+      <c r="HF18" s="21"/>
+      <c r="HG18" s="21"/>
+      <c r="HH18" s="21"/>
+      <c r="HI18" s="21"/>
+      <c r="HJ18" s="21"/>
+      <c r="HK18" s="21"/>
+      <c r="HL18" s="21"/>
+      <c r="HM18" s="21"/>
+      <c r="HN18" s="21"/>
+      <c r="HO18" s="21"/>
+      <c r="HP18" s="21"/>
+      <c r="HQ18" s="21"/>
+      <c r="HR18" s="21"/>
+      <c r="HS18" s="21"/>
+      <c r="HT18" s="21"/>
+      <c r="HU18" s="21"/>
+      <c r="HV18" s="21"/>
+      <c r="HW18" s="21"/>
+      <c r="HX18" s="21"/>
+      <c r="HY18" s="21"/>
+      <c r="HZ18" s="21"/>
+      <c r="IA18" s="21"/>
+      <c r="IB18" s="21"/>
+      <c r="IC18" s="21"/>
+      <c r="ID18" s="21"/>
+      <c r="IE18" s="21"/>
+      <c r="IF18" s="21"/>
+      <c r="IG18" s="21"/>
+      <c r="IH18" s="21"/>
+      <c r="II18" s="21"/>
+      <c r="IJ18" s="21"/>
+      <c r="IK18" s="21"/>
+      <c r="IL18" s="21"/>
+      <c r="IM18" s="21"/>
+      <c r="IN18" s="21"/>
+      <c r="IO18" s="21"/>
+      <c r="IP18" s="21"/>
+      <c r="IQ18" s="21"/>
     </row>
     <row r="19" spans="1:251" s="23" customFormat="1" ht="10.5">
-      <c r="A19" s="19"/>
-      <c r="B19" s="53" t="s">
-        <v>32</v>
+      <c r="A19" s="49"/>
+      <c r="B19" s="50" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D19" s="36">
+        <v>41045</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" ref="E19:E22" si="12">D19+F19-1</f>
         <v>41054</v>
       </c>
-      <c r="E19" s="11">
-        <f>D19+F19-1</f>
-        <v>41054</v>
-      </c>
       <c r="F19" s="41">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G19" s="34">
         <v>0</v>
       </c>
       <c r="H19" s="30">
-        <f>NETWORKDAYS(D19,E19)</f>
-        <v>1</v>
+        <f t="shared" ref="H19:H23" si="13">NETWORKDAYS(D19,E19)</f>
+        <v>8</v>
       </c>
       <c r="I19" s="12">
-        <f>ROUNDDOWN(G19*F19,0)</f>
+        <f t="shared" ref="I19:I23" si="14">ROUNDDOWN(G19*F19,0)</f>
         <v>0</v>
       </c>
       <c r="J19" s="30">
-        <f>F19-I19</f>
-        <v>1</v>
+        <f t="shared" ref="J19:J22" si="15">F19-I19</f>
+        <v>10</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -6011,37 +5695,37 @@
       <c r="IQ19" s="21"/>
     </row>
     <row r="20" spans="1:251" s="23" customFormat="1" ht="10.5">
-      <c r="A20" s="19"/>
-      <c r="B20" s="53" t="s">
-        <v>28</v>
+      <c r="A20" s="49"/>
+      <c r="B20" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D20" s="36">
+        <v>41036</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="12"/>
         <v>41054</v>
       </c>
-      <c r="E20" s="11">
-        <f>D20+F20-1</f>
-        <v>41078</v>
-      </c>
       <c r="F20" s="41">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G20" s="34">
         <v>0</v>
       </c>
       <c r="H20" s="30">
-        <f>NETWORKDAYS(D20,E20)</f>
-        <v>17</v>
+        <f t="shared" si="13"/>
+        <v>15</v>
       </c>
       <c r="I20" s="12">
-        <f>ROUNDDOWN(G20*F20,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J20" s="30">
-        <f>F20-I20</f>
-        <v>25</v>
+        <f t="shared" si="15"/>
+        <v>19</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -6285,38 +5969,38 @@
       <c r="IP20" s="21"/>
       <c r="IQ20" s="21"/>
     </row>
-    <row r="21" spans="1:251" s="23" customFormat="1" ht="10.5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="53" t="s">
-        <v>29</v>
+    <row r="21" spans="1:251" s="23" customFormat="1" ht="19.5">
+      <c r="A21" s="49"/>
+      <c r="B21" s="50" t="s">
+        <v>45</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="36">
-        <v>41064</v>
+        <v>41043</v>
       </c>
       <c r="E21" s="11">
-        <f t="shared" ref="E21" si="8">D21+F21-1</f>
-        <v>41089</v>
+        <f t="shared" ref="E21" si="16">D21+F21-1</f>
+        <v>41055</v>
       </c>
       <c r="F21" s="41">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G21" s="34">
         <v>0</v>
       </c>
       <c r="H21" s="30">
-        <f t="shared" ref="H21" si="9">NETWORKDAYS(D21,E21)</f>
-        <v>20</v>
+        <f t="shared" ref="H21" si="17">NETWORKDAYS(D21,E21)</f>
+        <v>10</v>
       </c>
       <c r="I21" s="12">
-        <f t="shared" ref="I21" si="10">ROUNDDOWN(G21*F21,0)</f>
+        <f t="shared" ref="I21" si="18">ROUNDDOWN(G21*F21,0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="30">
-        <f t="shared" ref="J21" si="11">F21-I21</f>
-        <v>26</v>
+        <f t="shared" ref="J21" si="19">F21-I21</f>
+        <v>13</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
@@ -6562,36 +6246,36 @@
     </row>
     <row r="22" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A22" s="49"/>
-      <c r="B22" s="53" t="s">
-        <v>30</v>
+      <c r="B22" s="50" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="36">
-        <v>41070</v>
+        <v>41049</v>
       </c>
       <c r="E22" s="11">
-        <f>D22+F22-1</f>
-        <v>41089</v>
+        <f t="shared" si="12"/>
+        <v>41053</v>
       </c>
       <c r="F22" s="41">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G22" s="34">
         <v>0</v>
       </c>
       <c r="H22" s="30">
-        <f t="shared" ref="H22" si="12">NETWORKDAYS(D22,E22)</f>
-        <v>15</v>
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22" si="13">ROUNDDOWN(G22*F22,0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J22" s="30">
-        <f>F22-I22</f>
-        <v>20</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -6835,347 +6519,347 @@
       <c r="IP22" s="21"/>
       <c r="IQ22" s="21"/>
     </row>
-    <row r="23" spans="1:251" s="23" customFormat="1" ht="10.5">
-      <c r="A23" s="49"/>
-      <c r="B23" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>37</v>
-      </c>
+    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.5">
+      <c r="A23" s="47"/>
+      <c r="B23" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="43"/>
       <c r="D23" s="36">
         <v>41054</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="13">
         <f>D23+F23-1</f>
         <v>41089</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="40">
+        <f>MAX(E24:E28)-D23 +1</f>
         <v>36</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="35">
+        <f>SUMPRODUCT(F24:F28,G24:G28)/SUM(F24:F28)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="30">
-        <f>NETWORKDAYS(D23,E23)</f>
+      <c r="H23" s="29">
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="I23" s="12">
-        <f>ROUNDDOWN(G23*F23,0)</f>
+      <c r="I23" s="14">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <f>F23-I23</f>
         <v>36</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-      <c r="AC23" s="21"/>
-      <c r="AD23" s="21"/>
-      <c r="AE23" s="21"/>
-      <c r="AF23" s="21"/>
-      <c r="AG23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AI23" s="21"/>
-      <c r="AJ23" s="21"/>
-      <c r="AK23" s="21"/>
-      <c r="AL23" s="21"/>
-      <c r="AM23" s="21"/>
-      <c r="AN23" s="21"/>
-      <c r="AO23" s="21"/>
-      <c r="AP23" s="21"/>
-      <c r="AQ23" s="21"/>
-      <c r="AR23" s="21"/>
-      <c r="AS23" s="21"/>
-      <c r="AT23" s="21"/>
-      <c r="AU23" s="21"/>
-      <c r="AV23" s="21"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="21"/>
-      <c r="AZ23" s="21"/>
-      <c r="BA23" s="21"/>
-      <c r="BB23" s="21"/>
-      <c r="BC23" s="21"/>
-      <c r="BD23" s="21"/>
-      <c r="BE23" s="21"/>
-      <c r="BF23" s="21"/>
-      <c r="BG23" s="21"/>
-      <c r="BH23" s="21"/>
-      <c r="BI23" s="21"/>
-      <c r="BJ23" s="21"/>
-      <c r="BK23" s="21"/>
-      <c r="BL23" s="21"/>
-      <c r="BM23" s="21"/>
-      <c r="BN23" s="21"/>
-      <c r="BO23" s="21"/>
-      <c r="BP23" s="21"/>
-      <c r="BQ23" s="21"/>
-      <c r="BR23" s="21"/>
-      <c r="BS23" s="21"/>
-      <c r="BT23" s="21"/>
-      <c r="BU23" s="21"/>
-      <c r="BV23" s="21"/>
-      <c r="BW23" s="21"/>
-      <c r="BX23" s="21"/>
-      <c r="BY23" s="21"/>
-      <c r="BZ23" s="21"/>
-      <c r="CA23" s="21"/>
-      <c r="CB23" s="21"/>
-      <c r="CC23" s="21"/>
-      <c r="CD23" s="21"/>
-      <c r="CE23" s="21"/>
-      <c r="CF23" s="21"/>
-      <c r="CG23" s="21"/>
-      <c r="CH23" s="21"/>
-      <c r="CI23" s="21"/>
-      <c r="CJ23" s="21"/>
-      <c r="CK23" s="21"/>
-      <c r="CL23" s="21"/>
-      <c r="CM23" s="21"/>
-      <c r="CN23" s="21"/>
-      <c r="CO23" s="21"/>
-      <c r="CP23" s="21"/>
-      <c r="CQ23" s="21"/>
-      <c r="CR23" s="21"/>
-      <c r="CS23" s="21"/>
-      <c r="CT23" s="21"/>
-      <c r="CU23" s="21"/>
-      <c r="CV23" s="21"/>
-      <c r="CW23" s="21"/>
-      <c r="CX23" s="21"/>
-      <c r="CY23" s="21"/>
-      <c r="CZ23" s="21"/>
-      <c r="DA23" s="21"/>
-      <c r="DB23" s="21"/>
-      <c r="DC23" s="21"/>
-      <c r="DD23" s="21"/>
-      <c r="DE23" s="21"/>
-      <c r="DF23" s="21"/>
-      <c r="DG23" s="21"/>
-      <c r="DH23" s="21"/>
-      <c r="DI23" s="21"/>
-      <c r="DJ23" s="21"/>
-      <c r="DK23" s="21"/>
-      <c r="DL23" s="21"/>
-      <c r="DM23" s="21"/>
-      <c r="DN23" s="21"/>
-      <c r="DO23" s="21"/>
-      <c r="DP23" s="21"/>
-      <c r="DQ23" s="21"/>
-      <c r="DR23" s="21"/>
-      <c r="DS23" s="21"/>
-      <c r="DT23" s="21"/>
-      <c r="DU23" s="21"/>
-      <c r="DV23" s="21"/>
-      <c r="DW23" s="21"/>
-      <c r="DX23" s="21"/>
-      <c r="DY23" s="21"/>
-      <c r="DZ23" s="21"/>
-      <c r="EA23" s="21"/>
-      <c r="EB23" s="21"/>
-      <c r="EC23" s="21"/>
-      <c r="ED23" s="21"/>
-      <c r="EE23" s="21"/>
-      <c r="EF23" s="21"/>
-      <c r="EG23" s="21"/>
-      <c r="EH23" s="21"/>
-      <c r="EI23" s="21"/>
-      <c r="EJ23" s="21"/>
-      <c r="EK23" s="21"/>
-      <c r="EL23" s="21"/>
-      <c r="EM23" s="21"/>
-      <c r="EN23" s="21"/>
-      <c r="EO23" s="21"/>
-      <c r="EP23" s="21"/>
-      <c r="EQ23" s="21"/>
-      <c r="ER23" s="21"/>
-      <c r="ES23" s="21"/>
-      <c r="ET23" s="21"/>
-      <c r="EU23" s="21"/>
-      <c r="EV23" s="21"/>
-      <c r="EW23" s="21"/>
-      <c r="EX23" s="21"/>
-      <c r="EY23" s="21"/>
-      <c r="EZ23" s="21"/>
-      <c r="FA23" s="21"/>
-      <c r="FB23" s="21"/>
-      <c r="FC23" s="21"/>
-      <c r="FD23" s="21"/>
-      <c r="FE23" s="21"/>
-      <c r="FF23" s="21"/>
-      <c r="FG23" s="21"/>
-      <c r="FH23" s="21"/>
-      <c r="FI23" s="21"/>
-      <c r="FJ23" s="21"/>
-      <c r="FK23" s="21"/>
-      <c r="FL23" s="21"/>
-      <c r="FM23" s="21"/>
-      <c r="FN23" s="21"/>
-      <c r="FO23" s="21"/>
-      <c r="FP23" s="21"/>
-      <c r="FQ23" s="21"/>
-      <c r="FR23" s="21"/>
-      <c r="FS23" s="21"/>
-      <c r="FT23" s="21"/>
-      <c r="FU23" s="21"/>
-      <c r="FV23" s="21"/>
-      <c r="FW23" s="21"/>
-      <c r="FX23" s="21"/>
-      <c r="FY23" s="21"/>
-      <c r="FZ23" s="21"/>
-      <c r="GA23" s="21"/>
-      <c r="GB23" s="21"/>
-      <c r="GC23" s="21"/>
-      <c r="GD23" s="21"/>
-      <c r="GE23" s="21"/>
-      <c r="GF23" s="21"/>
-      <c r="GG23" s="21"/>
-      <c r="GH23" s="21"/>
-      <c r="GI23" s="21"/>
-      <c r="GJ23" s="21"/>
-      <c r="GK23" s="21"/>
-      <c r="GL23" s="21"/>
-      <c r="GM23" s="21"/>
-      <c r="GN23" s="21"/>
-      <c r="GO23" s="21"/>
-      <c r="GP23" s="21"/>
-      <c r="GQ23" s="21"/>
-      <c r="GR23" s="21"/>
-      <c r="GS23" s="21"/>
-      <c r="GT23" s="21"/>
-      <c r="GU23" s="21"/>
-      <c r="GV23" s="21"/>
-      <c r="GW23" s="21"/>
-      <c r="GX23" s="21"/>
-      <c r="GY23" s="21"/>
-      <c r="GZ23" s="21"/>
-      <c r="HA23" s="21"/>
-      <c r="HB23" s="21"/>
-      <c r="HC23" s="21"/>
-      <c r="HD23" s="21"/>
-      <c r="HE23" s="21"/>
-      <c r="HF23" s="21"/>
-      <c r="HG23" s="21"/>
-      <c r="HH23" s="21"/>
-      <c r="HI23" s="21"/>
-      <c r="HJ23" s="21"/>
-      <c r="HK23" s="21"/>
-      <c r="HL23" s="21"/>
-      <c r="HM23" s="21"/>
-      <c r="HN23" s="21"/>
-      <c r="HO23" s="21"/>
-      <c r="HP23" s="21"/>
-      <c r="HQ23" s="21"/>
-      <c r="HR23" s="21"/>
-      <c r="HS23" s="21"/>
-      <c r="HT23" s="21"/>
-      <c r="HU23" s="21"/>
-      <c r="HV23" s="21"/>
-      <c r="HW23" s="21"/>
-      <c r="HX23" s="21"/>
-      <c r="HY23" s="21"/>
-      <c r="HZ23" s="21"/>
-      <c r="IA23" s="21"/>
-      <c r="IB23" s="21"/>
-      <c r="IC23" s="21"/>
-      <c r="ID23" s="21"/>
-      <c r="IE23" s="21"/>
-      <c r="IF23" s="21"/>
-      <c r="IG23" s="21"/>
-      <c r="IH23" s="21"/>
-      <c r="II23" s="21"/>
-      <c r="IJ23" s="21"/>
-      <c r="IK23" s="21"/>
-      <c r="IL23" s="21"/>
-      <c r="IM23" s="21"/>
-      <c r="IN23" s="21"/>
-      <c r="IO23" s="21"/>
-      <c r="IP23" s="21"/>
-      <c r="IQ23" s="21"/>
     </row>
-    <row r="24" spans="1:251" s="20" customFormat="1" ht="10.5">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="43"/>
+    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.5">
+      <c r="A24" s="19"/>
+      <c r="B24" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="36">
-        <v>41075</v>
-      </c>
-      <c r="E24" s="13">
+        <v>41054</v>
+      </c>
+      <c r="E24" s="11">
         <f>D24+F24-1</f>
-        <v>41117</v>
-      </c>
-      <c r="F24" s="40">
-        <f>MAX(E25:E28)-D24 +1</f>
-        <v>43</v>
-      </c>
-      <c r="G24" s="35">
-        <f>SUMPRODUCT(F25:F28,G25:G28)/SUM(F25:F28)</f>
+        <v>41054</v>
+      </c>
+      <c r="F24" s="41">
+        <v>1</v>
+      </c>
+      <c r="G24" s="34">
         <v>0</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="30">
         <f>NETWORKDAYS(D24,E24)</f>
-        <v>31</v>
-      </c>
-      <c r="I24" s="14">
+        <v>1</v>
+      </c>
+      <c r="I24" s="12">
         <f>ROUNDDOWN(G24*F24,0)</f>
         <v>0</v>
       </c>
-      <c r="J24" s="29">
+      <c r="J24" s="30">
         <f>F24-I24</f>
-        <v>43</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="21"/>
+      <c r="AE24" s="21"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="21"/>
+      <c r="AH24" s="21"/>
+      <c r="AI24" s="21"/>
+      <c r="AJ24" s="21"/>
+      <c r="AK24" s="21"/>
+      <c r="AL24" s="21"/>
+      <c r="AM24" s="21"/>
+      <c r="AN24" s="21"/>
+      <c r="AO24" s="21"/>
+      <c r="AP24" s="21"/>
+      <c r="AQ24" s="21"/>
+      <c r="AR24" s="21"/>
+      <c r="AS24" s="21"/>
+      <c r="AT24" s="21"/>
+      <c r="AU24" s="21"/>
+      <c r="AV24" s="21"/>
+      <c r="AW24" s="21"/>
+      <c r="AX24" s="21"/>
+      <c r="AY24" s="21"/>
+      <c r="AZ24" s="21"/>
+      <c r="BA24" s="21"/>
+      <c r="BB24" s="21"/>
+      <c r="BC24" s="21"/>
+      <c r="BD24" s="21"/>
+      <c r="BE24" s="21"/>
+      <c r="BF24" s="21"/>
+      <c r="BG24" s="21"/>
+      <c r="BH24" s="21"/>
+      <c r="BI24" s="21"/>
+      <c r="BJ24" s="21"/>
+      <c r="BK24" s="21"/>
+      <c r="BL24" s="21"/>
+      <c r="BM24" s="21"/>
+      <c r="BN24" s="21"/>
+      <c r="BO24" s="21"/>
+      <c r="BP24" s="21"/>
+      <c r="BQ24" s="21"/>
+      <c r="BR24" s="21"/>
+      <c r="BS24" s="21"/>
+      <c r="BT24" s="21"/>
+      <c r="BU24" s="21"/>
+      <c r="BV24" s="21"/>
+      <c r="BW24" s="21"/>
+      <c r="BX24" s="21"/>
+      <c r="BY24" s="21"/>
+      <c r="BZ24" s="21"/>
+      <c r="CA24" s="21"/>
+      <c r="CB24" s="21"/>
+      <c r="CC24" s="21"/>
+      <c r="CD24" s="21"/>
+      <c r="CE24" s="21"/>
+      <c r="CF24" s="21"/>
+      <c r="CG24" s="21"/>
+      <c r="CH24" s="21"/>
+      <c r="CI24" s="21"/>
+      <c r="CJ24" s="21"/>
+      <c r="CK24" s="21"/>
+      <c r="CL24" s="21"/>
+      <c r="CM24" s="21"/>
+      <c r="CN24" s="21"/>
+      <c r="CO24" s="21"/>
+      <c r="CP24" s="21"/>
+      <c r="CQ24" s="21"/>
+      <c r="CR24" s="21"/>
+      <c r="CS24" s="21"/>
+      <c r="CT24" s="21"/>
+      <c r="CU24" s="21"/>
+      <c r="CV24" s="21"/>
+      <c r="CW24" s="21"/>
+      <c r="CX24" s="21"/>
+      <c r="CY24" s="21"/>
+      <c r="CZ24" s="21"/>
+      <c r="DA24" s="21"/>
+      <c r="DB24" s="21"/>
+      <c r="DC24" s="21"/>
+      <c r="DD24" s="21"/>
+      <c r="DE24" s="21"/>
+      <c r="DF24" s="21"/>
+      <c r="DG24" s="21"/>
+      <c r="DH24" s="21"/>
+      <c r="DI24" s="21"/>
+      <c r="DJ24" s="21"/>
+      <c r="DK24" s="21"/>
+      <c r="DL24" s="21"/>
+      <c r="DM24" s="21"/>
+      <c r="DN24" s="21"/>
+      <c r="DO24" s="21"/>
+      <c r="DP24" s="21"/>
+      <c r="DQ24" s="21"/>
+      <c r="DR24" s="21"/>
+      <c r="DS24" s="21"/>
+      <c r="DT24" s="21"/>
+      <c r="DU24" s="21"/>
+      <c r="DV24" s="21"/>
+      <c r="DW24" s="21"/>
+      <c r="DX24" s="21"/>
+      <c r="DY24" s="21"/>
+      <c r="DZ24" s="21"/>
+      <c r="EA24" s="21"/>
+      <c r="EB24" s="21"/>
+      <c r="EC24" s="21"/>
+      <c r="ED24" s="21"/>
+      <c r="EE24" s="21"/>
+      <c r="EF24" s="21"/>
+      <c r="EG24" s="21"/>
+      <c r="EH24" s="21"/>
+      <c r="EI24" s="21"/>
+      <c r="EJ24" s="21"/>
+      <c r="EK24" s="21"/>
+      <c r="EL24" s="21"/>
+      <c r="EM24" s="21"/>
+      <c r="EN24" s="21"/>
+      <c r="EO24" s="21"/>
+      <c r="EP24" s="21"/>
+      <c r="EQ24" s="21"/>
+      <c r="ER24" s="21"/>
+      <c r="ES24" s="21"/>
+      <c r="ET24" s="21"/>
+      <c r="EU24" s="21"/>
+      <c r="EV24" s="21"/>
+      <c r="EW24" s="21"/>
+      <c r="EX24" s="21"/>
+      <c r="EY24" s="21"/>
+      <c r="EZ24" s="21"/>
+      <c r="FA24" s="21"/>
+      <c r="FB24" s="21"/>
+      <c r="FC24" s="21"/>
+      <c r="FD24" s="21"/>
+      <c r="FE24" s="21"/>
+      <c r="FF24" s="21"/>
+      <c r="FG24" s="21"/>
+      <c r="FH24" s="21"/>
+      <c r="FI24" s="21"/>
+      <c r="FJ24" s="21"/>
+      <c r="FK24" s="21"/>
+      <c r="FL24" s="21"/>
+      <c r="FM24" s="21"/>
+      <c r="FN24" s="21"/>
+      <c r="FO24" s="21"/>
+      <c r="FP24" s="21"/>
+      <c r="FQ24" s="21"/>
+      <c r="FR24" s="21"/>
+      <c r="FS24" s="21"/>
+      <c r="FT24" s="21"/>
+      <c r="FU24" s="21"/>
+      <c r="FV24" s="21"/>
+      <c r="FW24" s="21"/>
+      <c r="FX24" s="21"/>
+      <c r="FY24" s="21"/>
+      <c r="FZ24" s="21"/>
+      <c r="GA24" s="21"/>
+      <c r="GB24" s="21"/>
+      <c r="GC24" s="21"/>
+      <c r="GD24" s="21"/>
+      <c r="GE24" s="21"/>
+      <c r="GF24" s="21"/>
+      <c r="GG24" s="21"/>
+      <c r="GH24" s="21"/>
+      <c r="GI24" s="21"/>
+      <c r="GJ24" s="21"/>
+      <c r="GK24" s="21"/>
+      <c r="GL24" s="21"/>
+      <c r="GM24" s="21"/>
+      <c r="GN24" s="21"/>
+      <c r="GO24" s="21"/>
+      <c r="GP24" s="21"/>
+      <c r="GQ24" s="21"/>
+      <c r="GR24" s="21"/>
+      <c r="GS24" s="21"/>
+      <c r="GT24" s="21"/>
+      <c r="GU24" s="21"/>
+      <c r="GV24" s="21"/>
+      <c r="GW24" s="21"/>
+      <c r="GX24" s="21"/>
+      <c r="GY24" s="21"/>
+      <c r="GZ24" s="21"/>
+      <c r="HA24" s="21"/>
+      <c r="HB24" s="21"/>
+      <c r="HC24" s="21"/>
+      <c r="HD24" s="21"/>
+      <c r="HE24" s="21"/>
+      <c r="HF24" s="21"/>
+      <c r="HG24" s="21"/>
+      <c r="HH24" s="21"/>
+      <c r="HI24" s="21"/>
+      <c r="HJ24" s="21"/>
+      <c r="HK24" s="21"/>
+      <c r="HL24" s="21"/>
+      <c r="HM24" s="21"/>
+      <c r="HN24" s="21"/>
+      <c r="HO24" s="21"/>
+      <c r="HP24" s="21"/>
+      <c r="HQ24" s="21"/>
+      <c r="HR24" s="21"/>
+      <c r="HS24" s="21"/>
+      <c r="HT24" s="21"/>
+      <c r="HU24" s="21"/>
+      <c r="HV24" s="21"/>
+      <c r="HW24" s="21"/>
+      <c r="HX24" s="21"/>
+      <c r="HY24" s="21"/>
+      <c r="HZ24" s="21"/>
+      <c r="IA24" s="21"/>
+      <c r="IB24" s="21"/>
+      <c r="IC24" s="21"/>
+      <c r="ID24" s="21"/>
+      <c r="IE24" s="21"/>
+      <c r="IF24" s="21"/>
+      <c r="IG24" s="21"/>
+      <c r="IH24" s="21"/>
+      <c r="II24" s="21"/>
+      <c r="IJ24" s="21"/>
+      <c r="IK24" s="21"/>
+      <c r="IL24" s="21"/>
+      <c r="IM24" s="21"/>
+      <c r="IN24" s="21"/>
+      <c r="IO24" s="21"/>
+      <c r="IP24" s="21"/>
+      <c r="IQ24" s="21"/>
     </row>
     <row r="25" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A25" s="19"/>
-      <c r="B25" s="53" t="s">
-        <v>33</v>
+      <c r="B25" s="50" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" s="36">
-        <v>41075</v>
+        <v>41054</v>
       </c>
       <c r="E25" s="11">
-        <f t="shared" ref="E25:E28" si="14">D25+F25-1</f>
-        <v>41094</v>
+        <f>D25+F25-1</f>
+        <v>41078</v>
       </c>
       <c r="F25" s="41">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G25" s="34">
         <v>0</v>
       </c>
       <c r="H25" s="30">
         <f>NETWORKDAYS(D25,E25)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I25" s="12">
         <f>ROUNDDOWN(G25*F25,0)</f>
         <v>0</v>
       </c>
       <c r="J25" s="30">
-        <f t="shared" ref="J25:J28" si="15">F25-I25</f>
-        <v>20</v>
+        <f>F25-I25</f>
+        <v>25</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -7419,38 +7103,38 @@
       <c r="IP25" s="21"/>
       <c r="IQ25" s="21"/>
     </row>
-    <row r="26" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="26" spans="1:251" s="23" customFormat="1" ht="19.5">
       <c r="A26" s="19"/>
-      <c r="B26" s="53" t="s">
-        <v>34</v>
+      <c r="B26" s="50" t="s">
+        <v>27</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="36">
-        <v>41094</v>
+        <v>41064</v>
       </c>
       <c r="E26" s="11">
-        <f t="shared" si="14"/>
-        <v>41103</v>
+        <f t="shared" ref="E26" si="20">D26+F26-1</f>
+        <v>41089</v>
       </c>
       <c r="F26" s="41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G26" s="34">
         <v>0</v>
       </c>
       <c r="H26" s="30">
-        <f>NETWORKDAYS(D26,E26)</f>
-        <v>8</v>
+        <f t="shared" ref="H26" si="21">NETWORKDAYS(D26,E26)</f>
+        <v>20</v>
       </c>
       <c r="I26" s="12">
-        <f>ROUNDDOWN(G26*F26,0)</f>
+        <f t="shared" ref="I26" si="22">ROUNDDOWN(G26*F26,0)</f>
         <v>0</v>
       </c>
       <c r="J26" s="30">
-        <f t="shared" si="15"/>
-        <v>10</v>
+        <f t="shared" ref="J26" si="23">F26-I26</f>
+        <v>26</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7696,36 +7380,36 @@
     </row>
     <row r="27" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A27" s="49"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="44" t="s">
-        <v>37</v>
-      </c>
       <c r="D27" s="36">
-        <v>41103</v>
+        <v>41070</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="14"/>
-        <v>41117</v>
+        <f>D27+F27-1</f>
+        <v>41089</v>
       </c>
       <c r="F27" s="41">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G27" s="34">
         <v>0</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" ref="H27:H28" si="16">NETWORKDAYS(D27,E27)</f>
-        <v>11</v>
+        <f t="shared" ref="H27" si="24">NETWORKDAYS(D27,E27)</f>
+        <v>15</v>
       </c>
       <c r="I27" s="12">
-        <f t="shared" ref="I27:I28" si="17">ROUNDDOWN(G27*F27,0)</f>
+        <f t="shared" ref="I27" si="25">ROUNDDOWN(G27*F27,0)</f>
         <v>0</v>
       </c>
       <c r="J27" s="30">
-        <f t="shared" si="15"/>
-        <v>15</v>
+        <f>F27-I27</f>
+        <v>20</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -7971,36 +7655,36 @@
     </row>
     <row r="28" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A28" s="49"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D28" s="36">
+        <v>41054</v>
+      </c>
+      <c r="E28" s="11">
+        <f>D28+F28-1</f>
         <v>41089</v>
       </c>
-      <c r="E28" s="11">
-        <f t="shared" si="14"/>
-        <v>41117</v>
-      </c>
       <c r="F28" s="41">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" s="34">
         <v>0</v>
       </c>
       <c r="H28" s="30">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f>NETWORKDAYS(D28,E28)</f>
+        <v>26</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="17"/>
+        <f>ROUNDDOWN(G28*F28,0)</f>
         <v>0</v>
       </c>
       <c r="J28" s="30">
-        <f t="shared" si="15"/>
-        <v>29</v>
+        <f>F28-I28</f>
+        <v>36</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -8247,27 +7931,27 @@
     <row r="29" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
-        <v>41117</v>
+        <v>41075</v>
       </c>
       <c r="E29" s="13">
         <f>D29+F29-1</f>
-        <v>41125</v>
+        <v>41124</v>
       </c>
       <c r="F29" s="40">
-        <f>MAX(E30:E32)-D29 +1</f>
-        <v>9</v>
+        <f>MAX(E30:E33)-D29 +1</f>
+        <v>50</v>
       </c>
       <c r="G29" s="35">
-        <f>SUMPRODUCT(F30:F32,G30:G32)/SUM(F30:F32)</f>
+        <f>SUMPRODUCT(F30:F33,G30:G33)/SUM(F30:F33)</f>
         <v>0</v>
       </c>
       <c r="H29" s="29">
         <f>NETWORKDAYS(D29,E29)</f>
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I29" s="14">
         <f>ROUNDDOWN(G29*F29,0)</f>
@@ -8275,41 +7959,41 @@
       </c>
       <c r="J29" s="29">
         <f>F29-I29</f>
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A30" s="19"/>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="36">
+        <v>41075</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" ref="E30:E33" si="26">D30+F30-1</f>
+        <v>41094</v>
+      </c>
+      <c r="F30" s="41">
         <v>20</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="36">
-        <v>41117</v>
-      </c>
-      <c r="E30" s="11">
-        <f t="shared" ref="E30" si="18">D30+F30-1</f>
-        <v>41125</v>
-      </c>
-      <c r="F30" s="41">
-        <v>9</v>
       </c>
       <c r="G30" s="34">
         <v>0</v>
       </c>
       <c r="H30" s="30">
         <f>NETWORKDAYS(D30,E30)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I30" s="12">
         <f>ROUNDDOWN(G30*F30,0)</f>
         <v>0</v>
       </c>
       <c r="J30" s="30">
-        <f t="shared" ref="J30" si="19">F30-I30</f>
-        <v>9</v>
+        <f t="shared" ref="J30:J33" si="27">F30-I30</f>
+        <v>20</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -8553,6 +8237,1140 @@
       <c r="IP30" s="21"/>
       <c r="IQ30" s="21"/>
     </row>
+    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="36">
+        <v>41094</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="26"/>
+        <v>41103</v>
+      </c>
+      <c r="F31" s="41">
+        <v>10</v>
+      </c>
+      <c r="G31" s="34">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30">
+        <f>NETWORKDAYS(D31,E31)</f>
+        <v>8</v>
+      </c>
+      <c r="I31" s="12">
+        <f>ROUNDDOWN(G31*F31,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="30">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
+      <c r="AD31" s="21"/>
+      <c r="AE31" s="21"/>
+      <c r="AF31" s="21"/>
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="21"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" s="21"/>
+      <c r="AL31" s="21"/>
+      <c r="AM31" s="21"/>
+      <c r="AN31" s="21"/>
+      <c r="AO31" s="21"/>
+      <c r="AP31" s="21"/>
+      <c r="AQ31" s="21"/>
+      <c r="AR31" s="21"/>
+      <c r="AS31" s="21"/>
+      <c r="AT31" s="21"/>
+      <c r="AU31" s="21"/>
+      <c r="AV31" s="21"/>
+      <c r="AW31" s="21"/>
+      <c r="AX31" s="21"/>
+      <c r="AY31" s="21"/>
+      <c r="AZ31" s="21"/>
+      <c r="BA31" s="21"/>
+      <c r="BB31" s="21"/>
+      <c r="BC31" s="21"/>
+      <c r="BD31" s="21"/>
+      <c r="BE31" s="21"/>
+      <c r="BF31" s="21"/>
+      <c r="BG31" s="21"/>
+      <c r="BH31" s="21"/>
+      <c r="BI31" s="21"/>
+      <c r="BJ31" s="21"/>
+      <c r="BK31" s="21"/>
+      <c r="BL31" s="21"/>
+      <c r="BM31" s="21"/>
+      <c r="BN31" s="21"/>
+      <c r="BO31" s="21"/>
+      <c r="BP31" s="21"/>
+      <c r="BQ31" s="21"/>
+      <c r="BR31" s="21"/>
+      <c r="BS31" s="21"/>
+      <c r="BT31" s="21"/>
+      <c r="BU31" s="21"/>
+      <c r="BV31" s="21"/>
+      <c r="BW31" s="21"/>
+      <c r="BX31" s="21"/>
+      <c r="BY31" s="21"/>
+      <c r="BZ31" s="21"/>
+      <c r="CA31" s="21"/>
+      <c r="CB31" s="21"/>
+      <c r="CC31" s="21"/>
+      <c r="CD31" s="21"/>
+      <c r="CE31" s="21"/>
+      <c r="CF31" s="21"/>
+      <c r="CG31" s="21"/>
+      <c r="CH31" s="21"/>
+      <c r="CI31" s="21"/>
+      <c r="CJ31" s="21"/>
+      <c r="CK31" s="21"/>
+      <c r="CL31" s="21"/>
+      <c r="CM31" s="21"/>
+      <c r="CN31" s="21"/>
+      <c r="CO31" s="21"/>
+      <c r="CP31" s="21"/>
+      <c r="CQ31" s="21"/>
+      <c r="CR31" s="21"/>
+      <c r="CS31" s="21"/>
+      <c r="CT31" s="21"/>
+      <c r="CU31" s="21"/>
+      <c r="CV31" s="21"/>
+      <c r="CW31" s="21"/>
+      <c r="CX31" s="21"/>
+      <c r="CY31" s="21"/>
+      <c r="CZ31" s="21"/>
+      <c r="DA31" s="21"/>
+      <c r="DB31" s="21"/>
+      <c r="DC31" s="21"/>
+      <c r="DD31" s="21"/>
+      <c r="DE31" s="21"/>
+      <c r="DF31" s="21"/>
+      <c r="DG31" s="21"/>
+      <c r="DH31" s="21"/>
+      <c r="DI31" s="21"/>
+      <c r="DJ31" s="21"/>
+      <c r="DK31" s="21"/>
+      <c r="DL31" s="21"/>
+      <c r="DM31" s="21"/>
+      <c r="DN31" s="21"/>
+      <c r="DO31" s="21"/>
+      <c r="DP31" s="21"/>
+      <c r="DQ31" s="21"/>
+      <c r="DR31" s="21"/>
+      <c r="DS31" s="21"/>
+      <c r="DT31" s="21"/>
+      <c r="DU31" s="21"/>
+      <c r="DV31" s="21"/>
+      <c r="DW31" s="21"/>
+      <c r="DX31" s="21"/>
+      <c r="DY31" s="21"/>
+      <c r="DZ31" s="21"/>
+      <c r="EA31" s="21"/>
+      <c r="EB31" s="21"/>
+      <c r="EC31" s="21"/>
+      <c r="ED31" s="21"/>
+      <c r="EE31" s="21"/>
+      <c r="EF31" s="21"/>
+      <c r="EG31" s="21"/>
+      <c r="EH31" s="21"/>
+      <c r="EI31" s="21"/>
+      <c r="EJ31" s="21"/>
+      <c r="EK31" s="21"/>
+      <c r="EL31" s="21"/>
+      <c r="EM31" s="21"/>
+      <c r="EN31" s="21"/>
+      <c r="EO31" s="21"/>
+      <c r="EP31" s="21"/>
+      <c r="EQ31" s="21"/>
+      <c r="ER31" s="21"/>
+      <c r="ES31" s="21"/>
+      <c r="ET31" s="21"/>
+      <c r="EU31" s="21"/>
+      <c r="EV31" s="21"/>
+      <c r="EW31" s="21"/>
+      <c r="EX31" s="21"/>
+      <c r="EY31" s="21"/>
+      <c r="EZ31" s="21"/>
+      <c r="FA31" s="21"/>
+      <c r="FB31" s="21"/>
+      <c r="FC31" s="21"/>
+      <c r="FD31" s="21"/>
+      <c r="FE31" s="21"/>
+      <c r="FF31" s="21"/>
+      <c r="FG31" s="21"/>
+      <c r="FH31" s="21"/>
+      <c r="FI31" s="21"/>
+      <c r="FJ31" s="21"/>
+      <c r="FK31" s="21"/>
+      <c r="FL31" s="21"/>
+      <c r="FM31" s="21"/>
+      <c r="FN31" s="21"/>
+      <c r="FO31" s="21"/>
+      <c r="FP31" s="21"/>
+      <c r="FQ31" s="21"/>
+      <c r="FR31" s="21"/>
+      <c r="FS31" s="21"/>
+      <c r="FT31" s="21"/>
+      <c r="FU31" s="21"/>
+      <c r="FV31" s="21"/>
+      <c r="FW31" s="21"/>
+      <c r="FX31" s="21"/>
+      <c r="FY31" s="21"/>
+      <c r="FZ31" s="21"/>
+      <c r="GA31" s="21"/>
+      <c r="GB31" s="21"/>
+      <c r="GC31" s="21"/>
+      <c r="GD31" s="21"/>
+      <c r="GE31" s="21"/>
+      <c r="GF31" s="21"/>
+      <c r="GG31" s="21"/>
+      <c r="GH31" s="21"/>
+      <c r="GI31" s="21"/>
+      <c r="GJ31" s="21"/>
+      <c r="GK31" s="21"/>
+      <c r="GL31" s="21"/>
+      <c r="GM31" s="21"/>
+      <c r="GN31" s="21"/>
+      <c r="GO31" s="21"/>
+      <c r="GP31" s="21"/>
+      <c r="GQ31" s="21"/>
+      <c r="GR31" s="21"/>
+      <c r="GS31" s="21"/>
+      <c r="GT31" s="21"/>
+      <c r="GU31" s="21"/>
+      <c r="GV31" s="21"/>
+      <c r="GW31" s="21"/>
+      <c r="GX31" s="21"/>
+      <c r="GY31" s="21"/>
+      <c r="GZ31" s="21"/>
+      <c r="HA31" s="21"/>
+      <c r="HB31" s="21"/>
+      <c r="HC31" s="21"/>
+      <c r="HD31" s="21"/>
+      <c r="HE31" s="21"/>
+      <c r="HF31" s="21"/>
+      <c r="HG31" s="21"/>
+      <c r="HH31" s="21"/>
+      <c r="HI31" s="21"/>
+      <c r="HJ31" s="21"/>
+      <c r="HK31" s="21"/>
+      <c r="HL31" s="21"/>
+      <c r="HM31" s="21"/>
+      <c r="HN31" s="21"/>
+      <c r="HO31" s="21"/>
+      <c r="HP31" s="21"/>
+      <c r="HQ31" s="21"/>
+      <c r="HR31" s="21"/>
+      <c r="HS31" s="21"/>
+      <c r="HT31" s="21"/>
+      <c r="HU31" s="21"/>
+      <c r="HV31" s="21"/>
+      <c r="HW31" s="21"/>
+      <c r="HX31" s="21"/>
+      <c r="HY31" s="21"/>
+      <c r="HZ31" s="21"/>
+      <c r="IA31" s="21"/>
+      <c r="IB31" s="21"/>
+      <c r="IC31" s="21"/>
+      <c r="ID31" s="21"/>
+      <c r="IE31" s="21"/>
+      <c r="IF31" s="21"/>
+      <c r="IG31" s="21"/>
+      <c r="IH31" s="21"/>
+      <c r="II31" s="21"/>
+      <c r="IJ31" s="21"/>
+      <c r="IK31" s="21"/>
+      <c r="IL31" s="21"/>
+      <c r="IM31" s="21"/>
+      <c r="IN31" s="21"/>
+      <c r="IO31" s="21"/>
+      <c r="IP31" s="21"/>
+      <c r="IQ31" s="21"/>
+    </row>
+    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.5">
+      <c r="A32" s="49"/>
+      <c r="B32" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="36">
+        <v>41103</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" si="26"/>
+        <v>41117</v>
+      </c>
+      <c r="F32" s="41">
+        <v>15</v>
+      </c>
+      <c r="G32" s="34">
+        <v>0</v>
+      </c>
+      <c r="H32" s="30">
+        <f t="shared" ref="H32:H33" si="28">NETWORKDAYS(D32,E32)</f>
+        <v>11</v>
+      </c>
+      <c r="I32" s="12">
+        <f t="shared" ref="I32:I33" si="29">ROUNDDOWN(G32*F32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="30">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
+      <c r="AD32" s="21"/>
+      <c r="AE32" s="21"/>
+      <c r="AF32" s="21"/>
+      <c r="AG32" s="21"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="21"/>
+      <c r="AJ32" s="21"/>
+      <c r="AK32" s="21"/>
+      <c r="AL32" s="21"/>
+      <c r="AM32" s="21"/>
+      <c r="AN32" s="21"/>
+      <c r="AO32" s="21"/>
+      <c r="AP32" s="21"/>
+      <c r="AQ32" s="21"/>
+      <c r="AR32" s="21"/>
+      <c r="AS32" s="21"/>
+      <c r="AT32" s="21"/>
+      <c r="AU32" s="21"/>
+      <c r="AV32" s="21"/>
+      <c r="AW32" s="21"/>
+      <c r="AX32" s="21"/>
+      <c r="AY32" s="21"/>
+      <c r="AZ32" s="21"/>
+      <c r="BA32" s="21"/>
+      <c r="BB32" s="21"/>
+      <c r="BC32" s="21"/>
+      <c r="BD32" s="21"/>
+      <c r="BE32" s="21"/>
+      <c r="BF32" s="21"/>
+      <c r="BG32" s="21"/>
+      <c r="BH32" s="21"/>
+      <c r="BI32" s="21"/>
+      <c r="BJ32" s="21"/>
+      <c r="BK32" s="21"/>
+      <c r="BL32" s="21"/>
+      <c r="BM32" s="21"/>
+      <c r="BN32" s="21"/>
+      <c r="BO32" s="21"/>
+      <c r="BP32" s="21"/>
+      <c r="BQ32" s="21"/>
+      <c r="BR32" s="21"/>
+      <c r="BS32" s="21"/>
+      <c r="BT32" s="21"/>
+      <c r="BU32" s="21"/>
+      <c r="BV32" s="21"/>
+      <c r="BW32" s="21"/>
+      <c r="BX32" s="21"/>
+      <c r="BY32" s="21"/>
+      <c r="BZ32" s="21"/>
+      <c r="CA32" s="21"/>
+      <c r="CB32" s="21"/>
+      <c r="CC32" s="21"/>
+      <c r="CD32" s="21"/>
+      <c r="CE32" s="21"/>
+      <c r="CF32" s="21"/>
+      <c r="CG32" s="21"/>
+      <c r="CH32" s="21"/>
+      <c r="CI32" s="21"/>
+      <c r="CJ32" s="21"/>
+      <c r="CK32" s="21"/>
+      <c r="CL32" s="21"/>
+      <c r="CM32" s="21"/>
+      <c r="CN32" s="21"/>
+      <c r="CO32" s="21"/>
+      <c r="CP32" s="21"/>
+      <c r="CQ32" s="21"/>
+      <c r="CR32" s="21"/>
+      <c r="CS32" s="21"/>
+      <c r="CT32" s="21"/>
+      <c r="CU32" s="21"/>
+      <c r="CV32" s="21"/>
+      <c r="CW32" s="21"/>
+      <c r="CX32" s="21"/>
+      <c r="CY32" s="21"/>
+      <c r="CZ32" s="21"/>
+      <c r="DA32" s="21"/>
+      <c r="DB32" s="21"/>
+      <c r="DC32" s="21"/>
+      <c r="DD32" s="21"/>
+      <c r="DE32" s="21"/>
+      <c r="DF32" s="21"/>
+      <c r="DG32" s="21"/>
+      <c r="DH32" s="21"/>
+      <c r="DI32" s="21"/>
+      <c r="DJ32" s="21"/>
+      <c r="DK32" s="21"/>
+      <c r="DL32" s="21"/>
+      <c r="DM32" s="21"/>
+      <c r="DN32" s="21"/>
+      <c r="DO32" s="21"/>
+      <c r="DP32" s="21"/>
+      <c r="DQ32" s="21"/>
+      <c r="DR32" s="21"/>
+      <c r="DS32" s="21"/>
+      <c r="DT32" s="21"/>
+      <c r="DU32" s="21"/>
+      <c r="DV32" s="21"/>
+      <c r="DW32" s="21"/>
+      <c r="DX32" s="21"/>
+      <c r="DY32" s="21"/>
+      <c r="DZ32" s="21"/>
+      <c r="EA32" s="21"/>
+      <c r="EB32" s="21"/>
+      <c r="EC32" s="21"/>
+      <c r="ED32" s="21"/>
+      <c r="EE32" s="21"/>
+      <c r="EF32" s="21"/>
+      <c r="EG32" s="21"/>
+      <c r="EH32" s="21"/>
+      <c r="EI32" s="21"/>
+      <c r="EJ32" s="21"/>
+      <c r="EK32" s="21"/>
+      <c r="EL32" s="21"/>
+      <c r="EM32" s="21"/>
+      <c r="EN32" s="21"/>
+      <c r="EO32" s="21"/>
+      <c r="EP32" s="21"/>
+      <c r="EQ32" s="21"/>
+      <c r="ER32" s="21"/>
+      <c r="ES32" s="21"/>
+      <c r="ET32" s="21"/>
+      <c r="EU32" s="21"/>
+      <c r="EV32" s="21"/>
+      <c r="EW32" s="21"/>
+      <c r="EX32" s="21"/>
+      <c r="EY32" s="21"/>
+      <c r="EZ32" s="21"/>
+      <c r="FA32" s="21"/>
+      <c r="FB32" s="21"/>
+      <c r="FC32" s="21"/>
+      <c r="FD32" s="21"/>
+      <c r="FE32" s="21"/>
+      <c r="FF32" s="21"/>
+      <c r="FG32" s="21"/>
+      <c r="FH32" s="21"/>
+      <c r="FI32" s="21"/>
+      <c r="FJ32" s="21"/>
+      <c r="FK32" s="21"/>
+      <c r="FL32" s="21"/>
+      <c r="FM32" s="21"/>
+      <c r="FN32" s="21"/>
+      <c r="FO32" s="21"/>
+      <c r="FP32" s="21"/>
+      <c r="FQ32" s="21"/>
+      <c r="FR32" s="21"/>
+      <c r="FS32" s="21"/>
+      <c r="FT32" s="21"/>
+      <c r="FU32" s="21"/>
+      <c r="FV32" s="21"/>
+      <c r="FW32" s="21"/>
+      <c r="FX32" s="21"/>
+      <c r="FY32" s="21"/>
+      <c r="FZ32" s="21"/>
+      <c r="GA32" s="21"/>
+      <c r="GB32" s="21"/>
+      <c r="GC32" s="21"/>
+      <c r="GD32" s="21"/>
+      <c r="GE32" s="21"/>
+      <c r="GF32" s="21"/>
+      <c r="GG32" s="21"/>
+      <c r="GH32" s="21"/>
+      <c r="GI32" s="21"/>
+      <c r="GJ32" s="21"/>
+      <c r="GK32" s="21"/>
+      <c r="GL32" s="21"/>
+      <c r="GM32" s="21"/>
+      <c r="GN32" s="21"/>
+      <c r="GO32" s="21"/>
+      <c r="GP32" s="21"/>
+      <c r="GQ32" s="21"/>
+      <c r="GR32" s="21"/>
+      <c r="GS32" s="21"/>
+      <c r="GT32" s="21"/>
+      <c r="GU32" s="21"/>
+      <c r="GV32" s="21"/>
+      <c r="GW32" s="21"/>
+      <c r="GX32" s="21"/>
+      <c r="GY32" s="21"/>
+      <c r="GZ32" s="21"/>
+      <c r="HA32" s="21"/>
+      <c r="HB32" s="21"/>
+      <c r="HC32" s="21"/>
+      <c r="HD32" s="21"/>
+      <c r="HE32" s="21"/>
+      <c r="HF32" s="21"/>
+      <c r="HG32" s="21"/>
+      <c r="HH32" s="21"/>
+      <c r="HI32" s="21"/>
+      <c r="HJ32" s="21"/>
+      <c r="HK32" s="21"/>
+      <c r="HL32" s="21"/>
+      <c r="HM32" s="21"/>
+      <c r="HN32" s="21"/>
+      <c r="HO32" s="21"/>
+      <c r="HP32" s="21"/>
+      <c r="HQ32" s="21"/>
+      <c r="HR32" s="21"/>
+      <c r="HS32" s="21"/>
+      <c r="HT32" s="21"/>
+      <c r="HU32" s="21"/>
+      <c r="HV32" s="21"/>
+      <c r="HW32" s="21"/>
+      <c r="HX32" s="21"/>
+      <c r="HY32" s="21"/>
+      <c r="HZ32" s="21"/>
+      <c r="IA32" s="21"/>
+      <c r="IB32" s="21"/>
+      <c r="IC32" s="21"/>
+      <c r="ID32" s="21"/>
+      <c r="IE32" s="21"/>
+      <c r="IF32" s="21"/>
+      <c r="IG32" s="21"/>
+      <c r="IH32" s="21"/>
+      <c r="II32" s="21"/>
+      <c r="IJ32" s="21"/>
+      <c r="IK32" s="21"/>
+      <c r="IL32" s="21"/>
+      <c r="IM32" s="21"/>
+      <c r="IN32" s="21"/>
+      <c r="IO32" s="21"/>
+      <c r="IP32" s="21"/>
+      <c r="IQ32" s="21"/>
+    </row>
+    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.5">
+      <c r="A33" s="49"/>
+      <c r="B33" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="36">
+        <v>41110</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" si="26"/>
+        <v>41124</v>
+      </c>
+      <c r="F33" s="41">
+        <v>15</v>
+      </c>
+      <c r="G33" s="34">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" si="28"/>
+        <v>11</v>
+      </c>
+      <c r="I33" s="12">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="30">
+        <f t="shared" si="27"/>
+        <v>15</v>
+      </c>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
+      <c r="AD33" s="21"/>
+      <c r="AE33" s="21"/>
+      <c r="AF33" s="21"/>
+      <c r="AG33" s="21"/>
+      <c r="AH33" s="21"/>
+      <c r="AI33" s="21"/>
+      <c r="AJ33" s="21"/>
+      <c r="AK33" s="21"/>
+      <c r="AL33" s="21"/>
+      <c r="AM33" s="21"/>
+      <c r="AN33" s="21"/>
+      <c r="AO33" s="21"/>
+      <c r="AP33" s="21"/>
+      <c r="AQ33" s="21"/>
+      <c r="AR33" s="21"/>
+      <c r="AS33" s="21"/>
+      <c r="AT33" s="21"/>
+      <c r="AU33" s="21"/>
+      <c r="AV33" s="21"/>
+      <c r="AW33" s="21"/>
+      <c r="AX33" s="21"/>
+      <c r="AY33" s="21"/>
+      <c r="AZ33" s="21"/>
+      <c r="BA33" s="21"/>
+      <c r="BB33" s="21"/>
+      <c r="BC33" s="21"/>
+      <c r="BD33" s="21"/>
+      <c r="BE33" s="21"/>
+      <c r="BF33" s="21"/>
+      <c r="BG33" s="21"/>
+      <c r="BH33" s="21"/>
+      <c r="BI33" s="21"/>
+      <c r="BJ33" s="21"/>
+      <c r="BK33" s="21"/>
+      <c r="BL33" s="21"/>
+      <c r="BM33" s="21"/>
+      <c r="BN33" s="21"/>
+      <c r="BO33" s="21"/>
+      <c r="BP33" s="21"/>
+      <c r="BQ33" s="21"/>
+      <c r="BR33" s="21"/>
+      <c r="BS33" s="21"/>
+      <c r="BT33" s="21"/>
+      <c r="BU33" s="21"/>
+      <c r="BV33" s="21"/>
+      <c r="BW33" s="21"/>
+      <c r="BX33" s="21"/>
+      <c r="BY33" s="21"/>
+      <c r="BZ33" s="21"/>
+      <c r="CA33" s="21"/>
+      <c r="CB33" s="21"/>
+      <c r="CC33" s="21"/>
+      <c r="CD33" s="21"/>
+      <c r="CE33" s="21"/>
+      <c r="CF33" s="21"/>
+      <c r="CG33" s="21"/>
+      <c r="CH33" s="21"/>
+      <c r="CI33" s="21"/>
+      <c r="CJ33" s="21"/>
+      <c r="CK33" s="21"/>
+      <c r="CL33" s="21"/>
+      <c r="CM33" s="21"/>
+      <c r="CN33" s="21"/>
+      <c r="CO33" s="21"/>
+      <c r="CP33" s="21"/>
+      <c r="CQ33" s="21"/>
+      <c r="CR33" s="21"/>
+      <c r="CS33" s="21"/>
+      <c r="CT33" s="21"/>
+      <c r="CU33" s="21"/>
+      <c r="CV33" s="21"/>
+      <c r="CW33" s="21"/>
+      <c r="CX33" s="21"/>
+      <c r="CY33" s="21"/>
+      <c r="CZ33" s="21"/>
+      <c r="DA33" s="21"/>
+      <c r="DB33" s="21"/>
+      <c r="DC33" s="21"/>
+      <c r="DD33" s="21"/>
+      <c r="DE33" s="21"/>
+      <c r="DF33" s="21"/>
+      <c r="DG33" s="21"/>
+      <c r="DH33" s="21"/>
+      <c r="DI33" s="21"/>
+      <c r="DJ33" s="21"/>
+      <c r="DK33" s="21"/>
+      <c r="DL33" s="21"/>
+      <c r="DM33" s="21"/>
+      <c r="DN33" s="21"/>
+      <c r="DO33" s="21"/>
+      <c r="DP33" s="21"/>
+      <c r="DQ33" s="21"/>
+      <c r="DR33" s="21"/>
+      <c r="DS33" s="21"/>
+      <c r="DT33" s="21"/>
+      <c r="DU33" s="21"/>
+      <c r="DV33" s="21"/>
+      <c r="DW33" s="21"/>
+      <c r="DX33" s="21"/>
+      <c r="DY33" s="21"/>
+      <c r="DZ33" s="21"/>
+      <c r="EA33" s="21"/>
+      <c r="EB33" s="21"/>
+      <c r="EC33" s="21"/>
+      <c r="ED33" s="21"/>
+      <c r="EE33" s="21"/>
+      <c r="EF33" s="21"/>
+      <c r="EG33" s="21"/>
+      <c r="EH33" s="21"/>
+      <c r="EI33" s="21"/>
+      <c r="EJ33" s="21"/>
+      <c r="EK33" s="21"/>
+      <c r="EL33" s="21"/>
+      <c r="EM33" s="21"/>
+      <c r="EN33" s="21"/>
+      <c r="EO33" s="21"/>
+      <c r="EP33" s="21"/>
+      <c r="EQ33" s="21"/>
+      <c r="ER33" s="21"/>
+      <c r="ES33" s="21"/>
+      <c r="ET33" s="21"/>
+      <c r="EU33" s="21"/>
+      <c r="EV33" s="21"/>
+      <c r="EW33" s="21"/>
+      <c r="EX33" s="21"/>
+      <c r="EY33" s="21"/>
+      <c r="EZ33" s="21"/>
+      <c r="FA33" s="21"/>
+      <c r="FB33" s="21"/>
+      <c r="FC33" s="21"/>
+      <c r="FD33" s="21"/>
+      <c r="FE33" s="21"/>
+      <c r="FF33" s="21"/>
+      <c r="FG33" s="21"/>
+      <c r="FH33" s="21"/>
+      <c r="FI33" s="21"/>
+      <c r="FJ33" s="21"/>
+      <c r="FK33" s="21"/>
+      <c r="FL33" s="21"/>
+      <c r="FM33" s="21"/>
+      <c r="FN33" s="21"/>
+      <c r="FO33" s="21"/>
+      <c r="FP33" s="21"/>
+      <c r="FQ33" s="21"/>
+      <c r="FR33" s="21"/>
+      <c r="FS33" s="21"/>
+      <c r="FT33" s="21"/>
+      <c r="FU33" s="21"/>
+      <c r="FV33" s="21"/>
+      <c r="FW33" s="21"/>
+      <c r="FX33" s="21"/>
+      <c r="FY33" s="21"/>
+      <c r="FZ33" s="21"/>
+      <c r="GA33" s="21"/>
+      <c r="GB33" s="21"/>
+      <c r="GC33" s="21"/>
+      <c r="GD33" s="21"/>
+      <c r="GE33" s="21"/>
+      <c r="GF33" s="21"/>
+      <c r="GG33" s="21"/>
+      <c r="GH33" s="21"/>
+      <c r="GI33" s="21"/>
+      <c r="GJ33" s="21"/>
+      <c r="GK33" s="21"/>
+      <c r="GL33" s="21"/>
+      <c r="GM33" s="21"/>
+      <c r="GN33" s="21"/>
+      <c r="GO33" s="21"/>
+      <c r="GP33" s="21"/>
+      <c r="GQ33" s="21"/>
+      <c r="GR33" s="21"/>
+      <c r="GS33" s="21"/>
+      <c r="GT33" s="21"/>
+      <c r="GU33" s="21"/>
+      <c r="GV33" s="21"/>
+      <c r="GW33" s="21"/>
+      <c r="GX33" s="21"/>
+      <c r="GY33" s="21"/>
+      <c r="GZ33" s="21"/>
+      <c r="HA33" s="21"/>
+      <c r="HB33" s="21"/>
+      <c r="HC33" s="21"/>
+      <c r="HD33" s="21"/>
+      <c r="HE33" s="21"/>
+      <c r="HF33" s="21"/>
+      <c r="HG33" s="21"/>
+      <c r="HH33" s="21"/>
+      <c r="HI33" s="21"/>
+      <c r="HJ33" s="21"/>
+      <c r="HK33" s="21"/>
+      <c r="HL33" s="21"/>
+      <c r="HM33" s="21"/>
+      <c r="HN33" s="21"/>
+      <c r="HO33" s="21"/>
+      <c r="HP33" s="21"/>
+      <c r="HQ33" s="21"/>
+      <c r="HR33" s="21"/>
+      <c r="HS33" s="21"/>
+      <c r="HT33" s="21"/>
+      <c r="HU33" s="21"/>
+      <c r="HV33" s="21"/>
+      <c r="HW33" s="21"/>
+      <c r="HX33" s="21"/>
+      <c r="HY33" s="21"/>
+      <c r="HZ33" s="21"/>
+      <c r="IA33" s="21"/>
+      <c r="IB33" s="21"/>
+      <c r="IC33" s="21"/>
+      <c r="ID33" s="21"/>
+      <c r="IE33" s="21"/>
+      <c r="IF33" s="21"/>
+      <c r="IG33" s="21"/>
+      <c r="IH33" s="21"/>
+      <c r="II33" s="21"/>
+      <c r="IJ33" s="21"/>
+      <c r="IK33" s="21"/>
+      <c r="IL33" s="21"/>
+      <c r="IM33" s="21"/>
+      <c r="IN33" s="21"/>
+      <c r="IO33" s="21"/>
+      <c r="IP33" s="21"/>
+      <c r="IQ33" s="21"/>
+    </row>
+    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.5">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="36">
+        <v>41117</v>
+      </c>
+      <c r="E34" s="13">
+        <f>D34+F34-1</f>
+        <v>41125</v>
+      </c>
+      <c r="F34" s="40">
+        <f>MAX(E35:E37)-D34 +1</f>
+        <v>9</v>
+      </c>
+      <c r="G34" s="35">
+        <f>SUMPRODUCT(F35:F37,G35:G37)/SUM(F35:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="29">
+        <f>NETWORKDAYS(D34,E34)</f>
+        <v>6</v>
+      </c>
+      <c r="I34" s="14">
+        <f>ROUNDDOWN(G34*F34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="29">
+        <f>F34-I34</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.5">
+      <c r="A35" s="19"/>
+      <c r="B35" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="36">
+        <v>41117</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" ref="E35" si="30">D35+F35-1</f>
+        <v>41125</v>
+      </c>
+      <c r="F35" s="41">
+        <v>9</v>
+      </c>
+      <c r="G35" s="34">
+        <v>0</v>
+      </c>
+      <c r="H35" s="30">
+        <f>NETWORKDAYS(D35,E35)</f>
+        <v>6</v>
+      </c>
+      <c r="I35" s="12">
+        <f>ROUNDDOWN(G35*F35,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="30">
+        <f t="shared" ref="J35" si="31">F35-I35</f>
+        <v>9</v>
+      </c>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+      <c r="AD35" s="21"/>
+      <c r="AE35" s="21"/>
+      <c r="AF35" s="21"/>
+      <c r="AG35" s="21"/>
+      <c r="AH35" s="21"/>
+      <c r="AI35" s="21"/>
+      <c r="AJ35" s="21"/>
+      <c r="AK35" s="21"/>
+      <c r="AL35" s="21"/>
+      <c r="AM35" s="21"/>
+      <c r="AN35" s="21"/>
+      <c r="AO35" s="21"/>
+      <c r="AP35" s="21"/>
+      <c r="AQ35" s="21"/>
+      <c r="AR35" s="21"/>
+      <c r="AS35" s="21"/>
+      <c r="AT35" s="21"/>
+      <c r="AU35" s="21"/>
+      <c r="AV35" s="21"/>
+      <c r="AW35" s="21"/>
+      <c r="AX35" s="21"/>
+      <c r="AY35" s="21"/>
+      <c r="AZ35" s="21"/>
+      <c r="BA35" s="21"/>
+      <c r="BB35" s="21"/>
+      <c r="BC35" s="21"/>
+      <c r="BD35" s="21"/>
+      <c r="BE35" s="21"/>
+      <c r="BF35" s="21"/>
+      <c r="BG35" s="21"/>
+      <c r="BH35" s="21"/>
+      <c r="BI35" s="21"/>
+      <c r="BJ35" s="21"/>
+      <c r="BK35" s="21"/>
+      <c r="BL35" s="21"/>
+      <c r="BM35" s="21"/>
+      <c r="BN35" s="21"/>
+      <c r="BO35" s="21"/>
+      <c r="BP35" s="21"/>
+      <c r="BQ35" s="21"/>
+      <c r="BR35" s="21"/>
+      <c r="BS35" s="21"/>
+      <c r="BT35" s="21"/>
+      <c r="BU35" s="21"/>
+      <c r="BV35" s="21"/>
+      <c r="BW35" s="21"/>
+      <c r="BX35" s="21"/>
+      <c r="BY35" s="21"/>
+      <c r="BZ35" s="21"/>
+      <c r="CA35" s="21"/>
+      <c r="CB35" s="21"/>
+      <c r="CC35" s="21"/>
+      <c r="CD35" s="21"/>
+      <c r="CE35" s="21"/>
+      <c r="CF35" s="21"/>
+      <c r="CG35" s="21"/>
+      <c r="CH35" s="21"/>
+      <c r="CI35" s="21"/>
+      <c r="CJ35" s="21"/>
+      <c r="CK35" s="21"/>
+      <c r="CL35" s="21"/>
+      <c r="CM35" s="21"/>
+      <c r="CN35" s="21"/>
+      <c r="CO35" s="21"/>
+      <c r="CP35" s="21"/>
+      <c r="CQ35" s="21"/>
+      <c r="CR35" s="21"/>
+      <c r="CS35" s="21"/>
+      <c r="CT35" s="21"/>
+      <c r="CU35" s="21"/>
+      <c r="CV35" s="21"/>
+      <c r="CW35" s="21"/>
+      <c r="CX35" s="21"/>
+      <c r="CY35" s="21"/>
+      <c r="CZ35" s="21"/>
+      <c r="DA35" s="21"/>
+      <c r="DB35" s="21"/>
+      <c r="DC35" s="21"/>
+      <c r="DD35" s="21"/>
+      <c r="DE35" s="21"/>
+      <c r="DF35" s="21"/>
+      <c r="DG35" s="21"/>
+      <c r="DH35" s="21"/>
+      <c r="DI35" s="21"/>
+      <c r="DJ35" s="21"/>
+      <c r="DK35" s="21"/>
+      <c r="DL35" s="21"/>
+      <c r="DM35" s="21"/>
+      <c r="DN35" s="21"/>
+      <c r="DO35" s="21"/>
+      <c r="DP35" s="21"/>
+      <c r="DQ35" s="21"/>
+      <c r="DR35" s="21"/>
+      <c r="DS35" s="21"/>
+      <c r="DT35" s="21"/>
+      <c r="DU35" s="21"/>
+      <c r="DV35" s="21"/>
+      <c r="DW35" s="21"/>
+      <c r="DX35" s="21"/>
+      <c r="DY35" s="21"/>
+      <c r="DZ35" s="21"/>
+      <c r="EA35" s="21"/>
+      <c r="EB35" s="21"/>
+      <c r="EC35" s="21"/>
+      <c r="ED35" s="21"/>
+      <c r="EE35" s="21"/>
+      <c r="EF35" s="21"/>
+      <c r="EG35" s="21"/>
+      <c r="EH35" s="21"/>
+      <c r="EI35" s="21"/>
+      <c r="EJ35" s="21"/>
+      <c r="EK35" s="21"/>
+      <c r="EL35" s="21"/>
+      <c r="EM35" s="21"/>
+      <c r="EN35" s="21"/>
+      <c r="EO35" s="21"/>
+      <c r="EP35" s="21"/>
+      <c r="EQ35" s="21"/>
+      <c r="ER35" s="21"/>
+      <c r="ES35" s="21"/>
+      <c r="ET35" s="21"/>
+      <c r="EU35" s="21"/>
+      <c r="EV35" s="21"/>
+      <c r="EW35" s="21"/>
+      <c r="EX35" s="21"/>
+      <c r="EY35" s="21"/>
+      <c r="EZ35" s="21"/>
+      <c r="FA35" s="21"/>
+      <c r="FB35" s="21"/>
+      <c r="FC35" s="21"/>
+      <c r="FD35" s="21"/>
+      <c r="FE35" s="21"/>
+      <c r="FF35" s="21"/>
+      <c r="FG35" s="21"/>
+      <c r="FH35" s="21"/>
+      <c r="FI35" s="21"/>
+      <c r="FJ35" s="21"/>
+      <c r="FK35" s="21"/>
+      <c r="FL35" s="21"/>
+      <c r="FM35" s="21"/>
+      <c r="FN35" s="21"/>
+      <c r="FO35" s="21"/>
+      <c r="FP35" s="21"/>
+      <c r="FQ35" s="21"/>
+      <c r="FR35" s="21"/>
+      <c r="FS35" s="21"/>
+      <c r="FT35" s="21"/>
+      <c r="FU35" s="21"/>
+      <c r="FV35" s="21"/>
+      <c r="FW35" s="21"/>
+      <c r="FX35" s="21"/>
+      <c r="FY35" s="21"/>
+      <c r="FZ35" s="21"/>
+      <c r="GA35" s="21"/>
+      <c r="GB35" s="21"/>
+      <c r="GC35" s="21"/>
+      <c r="GD35" s="21"/>
+      <c r="GE35" s="21"/>
+      <c r="GF35" s="21"/>
+      <c r="GG35" s="21"/>
+      <c r="GH35" s="21"/>
+      <c r="GI35" s="21"/>
+      <c r="GJ35" s="21"/>
+      <c r="GK35" s="21"/>
+      <c r="GL35" s="21"/>
+      <c r="GM35" s="21"/>
+      <c r="GN35" s="21"/>
+      <c r="GO35" s="21"/>
+      <c r="GP35" s="21"/>
+      <c r="GQ35" s="21"/>
+      <c r="GR35" s="21"/>
+      <c r="GS35" s="21"/>
+      <c r="GT35" s="21"/>
+      <c r="GU35" s="21"/>
+      <c r="GV35" s="21"/>
+      <c r="GW35" s="21"/>
+      <c r="GX35" s="21"/>
+      <c r="GY35" s="21"/>
+      <c r="GZ35" s="21"/>
+      <c r="HA35" s="21"/>
+      <c r="HB35" s="21"/>
+      <c r="HC35" s="21"/>
+      <c r="HD35" s="21"/>
+      <c r="HE35" s="21"/>
+      <c r="HF35" s="21"/>
+      <c r="HG35" s="21"/>
+      <c r="HH35" s="21"/>
+      <c r="HI35" s="21"/>
+      <c r="HJ35" s="21"/>
+      <c r="HK35" s="21"/>
+      <c r="HL35" s="21"/>
+      <c r="HM35" s="21"/>
+      <c r="HN35" s="21"/>
+      <c r="HO35" s="21"/>
+      <c r="HP35" s="21"/>
+      <c r="HQ35" s="21"/>
+      <c r="HR35" s="21"/>
+      <c r="HS35" s="21"/>
+      <c r="HT35" s="21"/>
+      <c r="HU35" s="21"/>
+      <c r="HV35" s="21"/>
+      <c r="HW35" s="21"/>
+      <c r="HX35" s="21"/>
+      <c r="HY35" s="21"/>
+      <c r="HZ35" s="21"/>
+      <c r="IA35" s="21"/>
+      <c r="IB35" s="21"/>
+      <c r="IC35" s="21"/>
+      <c r="ID35" s="21"/>
+      <c r="IE35" s="21"/>
+      <c r="IF35" s="21"/>
+      <c r="IG35" s="21"/>
+      <c r="IH35" s="21"/>
+      <c r="II35" s="21"/>
+      <c r="IJ35" s="21"/>
+      <c r="IK35" s="21"/>
+      <c r="IL35" s="21"/>
+      <c r="IM35" s="21"/>
+      <c r="IN35" s="21"/>
+      <c r="IO35" s="21"/>
+      <c r="IP35" s="21"/>
+      <c r="IQ35" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
     <mergeCell ref="HD11:HH11"/>
@@ -8605,140 +9423,30 @@
     <mergeCell ref="AU11:AY11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="L14:IQ17 L19:IQ19 L21:IQ23 L25:IQ28">
-    <cfRule type="expression" dxfId="35" priority="55" stopIfTrue="1">
+  <conditionalFormatting sqref="L13:IQ13 L30:IQ30 L24:IQ24 L35:IQ35">
+    <cfRule type="expression" dxfId="5" priority="58" stopIfTrue="1">
       <formula>L$10=$C$8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="59" stopIfTrue="1">
+      <formula>AND(L$10&gt;=$D13,L$10&lt;$D13+$I13)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="60" stopIfTrue="1">
+      <formula>AND(L$10&gt;=$D13,L$10&lt;=$D13+$F13-1)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31:IQ34 L36:IQ36 L25:IQ29 L14:IQ23">
+    <cfRule type="expression" dxfId="2" priority="55" stopIfTrue="1">
+      <formula>L$10=$C$8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="56" stopIfTrue="1">
       <formula>AND(L$10&gt;=$D14,L$10&lt;$D14+$I14)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="57" stopIfTrue="1">
       <formula>AND(L$10&gt;=$D14,L$10&lt;=$D14+$F14-1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13:IQ13 L24:IQ24">
-    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="59" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D13,L$10&lt;$D13+$I13)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="60" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D13,L$10&lt;=$D13+$F13-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:IQ18">
-    <cfRule type="expression" dxfId="29" priority="37" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="38" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D18,L$10&lt;$D18+$I18)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D18,L$10&lt;=$D18+$F18-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:IQ20">
-    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;$D20+$I20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="30" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;=$D20+$F20-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:IQ20">
-    <cfRule type="expression" dxfId="23" priority="25" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;$D20+$I20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;=$D20+$F20-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:IQ19">
-    <cfRule type="expression" dxfId="20" priority="22" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D19,L$10&lt;$D19+$I19)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="24" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D19,L$10&lt;=$D19+$F19-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19:IQ19">
-    <cfRule type="expression" dxfId="17" priority="19" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D19,L$10&lt;$D19+$I19)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="21" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D19,L$10&lt;=$D19+$F19-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:IQ20">
-    <cfRule type="expression" dxfId="14" priority="16" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="17" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;$D20+$I20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="18" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;=$D20+$F20-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:IQ20">
-    <cfRule type="expression" dxfId="11" priority="13" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;$D20+$I20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;=$D20+$F20-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:IQ20">
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;$D20+$I20)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D20,L$10&lt;=$D20+$F20-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30:IQ30">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D30,L$10&lt;$D30+$I30)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D30,L$10&lt;=$D30+$F30-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L29:IQ29">
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
-      <formula>L$10=$C$8</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D29,L$10&lt;$D29+$I29)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>AND(L$10&gt;=$D29,L$10&lt;=$D29+$F29-1)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G1" r:id="rId1" display="terms of use"/>
+    <hyperlink ref="G1" r:id="rId1"/>
     <hyperlink ref="A1" r:id="rId2" tooltip="Link to Vertex42.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="1" header="0.5" footer="0.5"/>
@@ -8746,6 +9454,11 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8757,9 +9470,14 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="5835" windowWidth="19680" windowHeight="11640"/>
+    <workbookView xWindow="17625" yWindow="5835" windowWidth="19440" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IQ$29</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -483,9 +483,6 @@
   </si>
   <si>
     <t>Write Report</t>
-  </si>
-  <si>
-    <t>05/14/2012</t>
   </si>
   <si>
     <t>Engr 466 Flim Transport Project</t>
@@ -557,10 +554,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TBA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Peripherals Research</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -571,6 +564,12 @@
   <si>
     <t>Initial Design Concepts</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anderson</t>
+  </si>
+  <si>
+    <t>Anderson &amp; Andrew</t>
   </si>
 </sst>
 </file>
@@ -2519,8 +2518,8 @@
   </sheetPr>
   <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:CH36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2531,7 +2530,7 @@
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
     <col min="12" max="227" width="0.42578125" customWidth="1"/>
@@ -2557,9 +2556,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:251" ht="14.25">
+    <row r="3" spans="1:251" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:251">
@@ -2589,8 +2588,8 @@
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>20</v>
+      <c r="C8" s="17">
+        <v>41051</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -4004,16 +4003,16 @@
       <c r="IP11" s="52"/>
       <c r="IQ11" s="53"/>
     </row>
-    <row r="12" spans="1:251" s="22" customFormat="1" ht="10.5">
+    <row r="12" spans="1:251" s="22" customFormat="1" ht="11.25">
       <c r="A12" s="18"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="13" spans="1:251" s="20" customFormat="1">
       <c r="A13" s="47"/>
       <c r="B13" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="36">
@@ -4021,36 +4020,36 @@
       </c>
       <c r="E13" s="13">
         <f>D13+F13-1</f>
-        <v>41055</v>
+        <v>41061</v>
       </c>
       <c r="F13" s="40">
         <f>MAX(E15:E22)-D13 +1</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G13" s="35">
         <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
-        <v>7.0588235294117658E-3</v>
+        <v>0.21744186046511627</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" ref="I13:I17" si="1">ROUNDDOWN(G13*F13,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J13" s="29">
         <f>F13-I13</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:251" s="23" customFormat="1" ht="19.5">
+    <row r="14" spans="1:251" s="23" customFormat="1">
       <c r="A14" s="19"/>
       <c r="B14" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>39</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>40</v>
       </c>
       <c r="D14" s="36">
         <v>41043</v>
@@ -4063,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H14" s="30">
         <f t="shared" ref="H14" si="3">NETWORKDAYS(D14,E14)</f>
@@ -4071,11 +4070,11 @@
       </c>
       <c r="I14" s="12">
         <f t="shared" ref="I14" si="4">ROUNDDOWN(G14*F14,0)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="30">
         <f t="shared" ref="J14" si="5">F14-I14</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
@@ -4319,13 +4318,13 @@
       <c r="IP14" s="21"/>
       <c r="IQ14" s="21"/>
     </row>
-    <row r="15" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="15" spans="1:251" s="23" customFormat="1">
       <c r="A15" s="19"/>
       <c r="B15" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="36">
         <v>41043</v>
@@ -4594,13 +4593,13 @@
       <c r="IP15" s="21"/>
       <c r="IQ15" s="21"/>
     </row>
-    <row r="16" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="16" spans="1:251" s="23" customFormat="1">
       <c r="A16" s="19"/>
       <c r="B16" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="36">
         <v>41043</v>
@@ -4869,13 +4868,13 @@
       <c r="IP16" s="21"/>
       <c r="IQ16" s="21"/>
     </row>
-    <row r="17" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="17" spans="1:251" s="23" customFormat="1">
       <c r="A17" s="19"/>
       <c r="B17" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" s="36">
         <v>41043</v>
@@ -4888,7 +4887,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="34">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="0"/>
@@ -4896,11 +4895,11 @@
       </c>
       <c r="I17" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" s="30">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -5144,13 +5143,13 @@
       <c r="IP17" s="21"/>
       <c r="IQ17" s="21"/>
     </row>
-    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="18" spans="1:251" s="23" customFormat="1">
       <c r="A18" s="19"/>
       <c r="B18" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D18" s="36">
         <v>41043</v>
@@ -5163,7 +5162,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="34">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="30">
         <f>NETWORKDAYS(D18,E18)</f>
@@ -5171,11 +5170,11 @@
       </c>
       <c r="I18" s="12">
         <f>ROUNDDOWN(G18*F18,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" s="30">
         <f>F18-I18</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -5419,13 +5418,13 @@
       <c r="IP18" s="21"/>
       <c r="IQ18" s="21"/>
     </row>
-    <row r="19" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="19" spans="1:251" s="23" customFormat="1">
       <c r="A19" s="49"/>
       <c r="B19" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="36">
         <v>41045</v>
@@ -5438,7 +5437,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="34">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" ref="H19:H23" si="13">NETWORKDAYS(D19,E19)</f>
@@ -5446,11 +5445,11 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ref="I19:I23" si="14">ROUNDDOWN(G19*F19,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" ref="J19:J22" si="15">F19-I19</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -5694,13 +5693,13 @@
       <c r="IP19" s="21"/>
       <c r="IQ19" s="21"/>
     </row>
-    <row r="20" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="20" spans="1:251" s="23" customFormat="1">
       <c r="A20" s="49"/>
       <c r="B20" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="36">
         <v>41036</v>
@@ -5713,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="34">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="13"/>
@@ -5969,13 +5968,13 @@
       <c r="IP20" s="21"/>
       <c r="IQ20" s="21"/>
     </row>
-    <row r="21" spans="1:251" s="23" customFormat="1" ht="19.5">
+    <row r="21" spans="1:251" s="23" customFormat="1">
       <c r="A21" s="49"/>
       <c r="B21" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>35</v>
       </c>
       <c r="D21" s="36">
         <v>41043</v>
@@ -5988,7 +5987,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" ref="H21" si="17">NETWORKDAYS(D21,E21)</f>
@@ -5996,11 +5995,11 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21" si="18">ROUNDDOWN(G21*F21,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J21" s="30">
         <f t="shared" ref="J21" si="19">F21-I21</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
@@ -6244,30 +6243,30 @@
       <c r="IP21" s="21"/>
       <c r="IQ21" s="21"/>
     </row>
-    <row r="22" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="22" spans="1:251" s="23" customFormat="1">
       <c r="A22" s="49"/>
       <c r="B22" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D22" s="36">
-        <v>41049</v>
+        <v>41056</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="12"/>
-        <v>41053</v>
+        <v>41061</v>
       </c>
       <c r="F22" s="41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="34">
         <v>0</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="12">
         <f t="shared" si="14"/>
@@ -6275,7 +6274,7 @@
       </c>
       <c r="J22" s="30">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -6519,10 +6518,10 @@
       <c r="IP22" s="21"/>
       <c r="IQ22" s="21"/>
     </row>
-    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="23" spans="1:251" s="20" customFormat="1">
       <c r="A23" s="47"/>
       <c r="B23" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="43"/>
       <c r="D23" s="36">
@@ -6553,13 +6552,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="24" spans="1:251" s="23" customFormat="1">
       <c r="A24" s="19"/>
       <c r="B24" s="50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="36">
         <v>41054</v>
@@ -6828,13 +6827,13 @@
       <c r="IP24" s="21"/>
       <c r="IQ24" s="21"/>
     </row>
-    <row r="25" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="25" spans="1:251" s="23" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="36">
         <v>41054</v>
@@ -7103,13 +7102,13 @@
       <c r="IP25" s="21"/>
       <c r="IQ25" s="21"/>
     </row>
-    <row r="26" spans="1:251" s="23" customFormat="1" ht="19.5">
+    <row r="26" spans="1:251" s="23" customFormat="1">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" s="36">
         <v>41064</v>
@@ -7378,13 +7377,13 @@
       <c r="IP26" s="21"/>
       <c r="IQ26" s="21"/>
     </row>
-    <row r="27" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="27" spans="1:251" s="23" customFormat="1">
       <c r="A27" s="49"/>
       <c r="B27" s="50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="36">
         <v>41070</v>
@@ -7653,13 +7652,13 @@
       <c r="IP27" s="21"/>
       <c r="IQ27" s="21"/>
     </row>
-    <row r="28" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="28" spans="1:251" s="23" customFormat="1">
       <c r="A28" s="49"/>
       <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D28" s="36">
         <v>41054</v>
@@ -7928,10 +7927,10 @@
       <c r="IP28" s="21"/>
       <c r="IQ28" s="21"/>
     </row>
-    <row r="29" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="29" spans="1:251" s="20" customFormat="1">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
@@ -7962,13 +7961,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="30" spans="1:251" s="23" customFormat="1">
       <c r="A30" s="19"/>
       <c r="B30" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="36">
         <v>41075</v>
@@ -8237,13 +8236,13 @@
       <c r="IP30" s="21"/>
       <c r="IQ30" s="21"/>
     </row>
-    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="31" spans="1:251" s="23" customFormat="1">
       <c r="A31" s="19"/>
       <c r="B31" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="36">
         <v>41094</v>
@@ -8512,13 +8511,13 @@
       <c r="IP31" s="21"/>
       <c r="IQ31" s="21"/>
     </row>
-    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="32" spans="1:251" s="23" customFormat="1">
       <c r="A32" s="49"/>
       <c r="B32" s="50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="36">
         <v>41103</v>
@@ -8787,13 +8786,13 @@
       <c r="IP32" s="21"/>
       <c r="IQ32" s="21"/>
     </row>
-    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="33" spans="1:251" s="23" customFormat="1">
       <c r="A33" s="49"/>
       <c r="B33" s="50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="36">
         <v>41110</v>
@@ -9062,10 +9061,10 @@
       <c r="IP33" s="21"/>
       <c r="IQ33" s="21"/>
     </row>
-    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="34" spans="1:251" s="20" customFormat="1">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="36">
@@ -9096,13 +9095,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="35" spans="1:251" s="23" customFormat="1">
       <c r="A35" s="19"/>
       <c r="B35" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="36">
         <v>41117</v>

--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="17625" yWindow="5835" windowWidth="19440" windowHeight="11640"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -13,10 +13,10 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IQ$29</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
+      <mx:ArchID Flags="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Anderson &amp; Andrew</t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
 </sst>
 </file>
@@ -2513,13 +2516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+  <sheetPr published="0" codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2556,7 +2559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:251" ht="15.75">
+    <row r="3" spans="1:251" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>41051</v>
+        <v>41072</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -4003,13 +4006,13 @@
       <c r="IP11" s="52"/>
       <c r="IQ11" s="53"/>
     </row>
-    <row r="12" spans="1:251" s="22" customFormat="1" ht="11.25">
+    <row r="12" spans="1:251" s="22" customFormat="1" ht="10.5">
       <c r="A12" s="18"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:251" s="20" customFormat="1">
+    <row r="13" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A13" s="47"/>
       <c r="B13" s="48" t="s">
         <v>21</v>
@@ -4028,7 +4031,7 @@
       </c>
       <c r="G13" s="35">
         <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
-        <v>0.21744186046511627</v>
+        <v>0.79651162790697672</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
@@ -4036,14 +4039,14 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" ref="I13:I17" si="1">ROUNDDOWN(G13*F13,0)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J13" s="29">
         <f>F13-I13</f>
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:251" s="23" customFormat="1">
+    <row r="14" spans="1:251" s="23" customFormat="1" ht="19.5">
       <c r="A14" s="19"/>
       <c r="B14" s="50" t="s">
         <v>38</v>
@@ -4318,7 +4321,7 @@
       <c r="IP14" s="21"/>
       <c r="IQ14" s="21"/>
     </row>
-    <row r="15" spans="1:251" s="23" customFormat="1">
+    <row r="15" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A15" s="19"/>
       <c r="B15" s="50" t="s">
         <v>41</v>
@@ -4337,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="30">
         <f t="shared" si="0"/>
@@ -4345,11 +4348,11 @@
       </c>
       <c r="I15" s="12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J15" s="30">
         <f t="shared" ref="J15:J17" si="7">F15-I15</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
@@ -4593,7 +4596,7 @@
       <c r="IP15" s="21"/>
       <c r="IQ15" s="21"/>
     </row>
-    <row r="16" spans="1:251" s="23" customFormat="1">
+    <row r="16" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A16" s="19"/>
       <c r="B16" s="50" t="s">
         <v>36</v>
@@ -4612,7 +4615,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="30">
         <f t="shared" ref="H16" si="9">NETWORKDAYS(D16,E16)</f>
@@ -4620,11 +4623,11 @@
       </c>
       <c r="I16" s="12">
         <f t="shared" ref="I16" si="10">ROUNDDOWN(G16*F16,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="30">
         <f t="shared" ref="J16" si="11">F16-I16</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -4868,7 +4871,7 @@
       <c r="IP16" s="21"/>
       <c r="IQ16" s="21"/>
     </row>
-    <row r="17" spans="1:251" s="23" customFormat="1">
+    <row r="17" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A17" s="19"/>
       <c r="B17" s="50" t="s">
         <v>35</v>
@@ -5143,7 +5146,7 @@
       <c r="IP17" s="21"/>
       <c r="IQ17" s="21"/>
     </row>
-    <row r="18" spans="1:251" s="23" customFormat="1">
+    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A18" s="19"/>
       <c r="B18" s="50" t="s">
         <v>22</v>
@@ -5418,7 +5421,7 @@
       <c r="IP18" s="21"/>
       <c r="IQ18" s="21"/>
     </row>
-    <row r="19" spans="1:251" s="23" customFormat="1">
+    <row r="19" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A19" s="49"/>
       <c r="B19" s="50" t="s">
         <v>23</v>
@@ -5693,7 +5696,7 @@
       <c r="IP19" s="21"/>
       <c r="IQ19" s="21"/>
     </row>
-    <row r="20" spans="1:251" s="23" customFormat="1">
+    <row r="20" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A20" s="49"/>
       <c r="B20" s="50" t="s">
         <v>19</v>
@@ -5712,7 +5715,7 @@
         <v>19</v>
       </c>
       <c r="G20" s="34">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H20" s="30">
         <f t="shared" si="13"/>
@@ -5720,11 +5723,11 @@
       </c>
       <c r="I20" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J20" s="30">
         <f t="shared" si="15"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
@@ -5968,7 +5971,7 @@
       <c r="IP20" s="21"/>
       <c r="IQ20" s="21"/>
     </row>
-    <row r="21" spans="1:251" s="23" customFormat="1">
+    <row r="21" spans="1:251" s="23" customFormat="1" ht="12" customHeight="1">
       <c r="A21" s="49"/>
       <c r="B21" s="50" t="s">
         <v>43</v>
@@ -5987,7 +5990,7 @@
         <v>13</v>
       </c>
       <c r="G21" s="34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H21" s="30">
         <f t="shared" ref="H21" si="17">NETWORKDAYS(D21,E21)</f>
@@ -5995,11 +5998,11 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21" si="18">ROUNDDOWN(G21*F21,0)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J21" s="30">
         <f t="shared" ref="J21" si="19">F21-I21</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
@@ -6243,7 +6246,7 @@
       <c r="IP21" s="21"/>
       <c r="IQ21" s="21"/>
     </row>
-    <row r="22" spans="1:251" s="23" customFormat="1">
+    <row r="22" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A22" s="49"/>
       <c r="B22" s="50" t="s">
         <v>37</v>
@@ -6262,7 +6265,7 @@
         <v>6</v>
       </c>
       <c r="G22" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="30">
         <f t="shared" si="13"/>
@@ -6270,11 +6273,11 @@
       </c>
       <c r="I22" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J22" s="30">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -6518,7 +6521,7 @@
       <c r="IP22" s="21"/>
       <c r="IQ22" s="21"/>
     </row>
-    <row r="23" spans="1:251" s="20" customFormat="1">
+    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A23" s="47"/>
       <c r="B23" s="48" t="s">
         <v>24</v>
@@ -6537,7 +6540,7 @@
       </c>
       <c r="G23" s="35">
         <f>SUMPRODUCT(F24:F28,G24:G28)/SUM(F24:F28)</f>
-        <v>0</v>
+        <v>0.30462962962962964</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="13"/>
@@ -6545,20 +6548,20 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J23" s="29">
         <f>F23-I23</f>
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:251" s="23" customFormat="1">
+    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A24" s="19"/>
       <c r="B24" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D24" s="36">
         <v>41054</v>
@@ -6571,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="34">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H24" s="30">
         <f>NETWORKDAYS(D24,E24)</f>
@@ -6827,13 +6830,13 @@
       <c r="IP24" s="21"/>
       <c r="IQ24" s="21"/>
     </row>
-    <row r="25" spans="1:251" s="23" customFormat="1">
+    <row r="25" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A25" s="19"/>
       <c r="B25" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D25" s="36">
         <v>41054</v>
@@ -6846,7 +6849,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="34">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H25" s="30">
         <f>NETWORKDAYS(D25,E25)</f>
@@ -6854,11 +6857,11 @@
       </c>
       <c r="I25" s="12">
         <f>ROUNDDOWN(G25*F25,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J25" s="30">
         <f>F25-I25</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -7102,13 +7105,13 @@
       <c r="IP25" s="21"/>
       <c r="IQ25" s="21"/>
     </row>
-    <row r="26" spans="1:251" s="23" customFormat="1">
+    <row r="26" spans="1:251" s="23" customFormat="1" ht="12.75" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D26" s="36">
         <v>41064</v>
@@ -7121,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="34">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" ref="H26" si="21">NETWORKDAYS(D26,E26)</f>
@@ -7129,11 +7132,11 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ref="I26" si="22">ROUNDDOWN(G26*F26,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J26" s="30">
         <f t="shared" ref="J26" si="23">F26-I26</f>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7377,13 +7380,13 @@
       <c r="IP26" s="21"/>
       <c r="IQ26" s="21"/>
     </row>
-    <row r="27" spans="1:251" s="23" customFormat="1">
+    <row r="27" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A27" s="49"/>
       <c r="B27" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D27" s="36">
         <v>41070</v>
@@ -7396,7 +7399,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" ref="H27" si="24">NETWORKDAYS(D27,E27)</f>
@@ -7404,11 +7407,11 @@
       </c>
       <c r="I27" s="12">
         <f t="shared" ref="I27" si="25">ROUNDDOWN(G27*F27,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J27" s="30">
         <f>F27-I27</f>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -7652,13 +7655,13 @@
       <c r="IP27" s="21"/>
       <c r="IQ27" s="21"/>
     </row>
-    <row r="28" spans="1:251" s="23" customFormat="1">
+    <row r="28" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A28" s="49"/>
       <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D28" s="36">
         <v>41054</v>
@@ -7671,7 +7674,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H28" s="30">
         <f>NETWORKDAYS(D28,E28)</f>
@@ -7679,11 +7682,11 @@
       </c>
       <c r="I28" s="12">
         <f>ROUNDDOWN(G28*F28,0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J28" s="30">
         <f>F28-I28</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -7927,14 +7930,14 @@
       <c r="IP28" s="21"/>
       <c r="IQ28" s="21"/>
     </row>
-    <row r="29" spans="1:251" s="20" customFormat="1">
+    <row r="29" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
-        <v>41075</v>
+        <v>41068</v>
       </c>
       <c r="E29" s="13">
         <f>D29+F29-1</f>
@@ -7942,7 +7945,7 @@
       </c>
       <c r="F29" s="40">
         <f>MAX(E30:E33)-D29 +1</f>
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G29" s="35">
         <f>SUMPRODUCT(F30:F33,G30:G33)/SUM(F30:F33)</f>
@@ -7950,7 +7953,7 @@
       </c>
       <c r="H29" s="29">
         <f>NETWORKDAYS(D29,E29)</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I29" s="14">
         <f>ROUNDDOWN(G29*F29,0)</f>
@@ -7958,10 +7961,10 @@
       </c>
       <c r="J29" s="29">
         <f>F29-I29</f>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:251" s="23" customFormat="1">
+    <row r="30" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A30" s="19"/>
       <c r="B30" s="50" t="s">
         <v>30</v>
@@ -7970,21 +7973,21 @@
         <v>34</v>
       </c>
       <c r="D30" s="36">
-        <v>41075</v>
+        <v>41069</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" ref="E30:E33" si="26">D30+F30-1</f>
-        <v>41094</v>
+        <v>41084</v>
       </c>
       <c r="F30" s="41">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G30" s="34">
         <v>0</v>
       </c>
       <c r="H30" s="30">
         <f>NETWORKDAYS(D30,E30)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I30" s="12">
         <f>ROUNDDOWN(G30*F30,0)</f>
@@ -7992,7 +7995,7 @@
       </c>
       <c r="J30" s="30">
         <f t="shared" ref="J30:J33" si="27">F30-I30</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -8236,7 +8239,7 @@
       <c r="IP30" s="21"/>
       <c r="IQ30" s="21"/>
     </row>
-    <row r="31" spans="1:251" s="23" customFormat="1">
+    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A31" s="19"/>
       <c r="B31" s="50" t="s">
         <v>31</v>
@@ -8511,7 +8514,7 @@
       <c r="IP31" s="21"/>
       <c r="IQ31" s="21"/>
     </row>
-    <row r="32" spans="1:251" s="23" customFormat="1">
+    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A32" s="49"/>
       <c r="B32" s="50" t="s">
         <v>32</v>
@@ -8786,7 +8789,7 @@
       <c r="IP32" s="21"/>
       <c r="IQ32" s="21"/>
     </row>
-    <row r="33" spans="1:251" s="23" customFormat="1">
+    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A33" s="49"/>
       <c r="B33" s="50" t="s">
         <v>42</v>
@@ -9061,7 +9064,7 @@
       <c r="IP33" s="21"/>
       <c r="IQ33" s="21"/>
     </row>
-    <row r="34" spans="1:251" s="20" customFormat="1">
+    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
         <v>33</v>
@@ -9095,7 +9098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:251" s="23" customFormat="1">
+    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A35" s="19"/>
       <c r="B35" s="50" t="s">
         <v>19</v>
@@ -9449,10 +9452,10 @@
     <hyperlink ref="A1" r:id="rId2" tooltip="Link to Vertex42.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="75" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9463,6 +9466,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="19440" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IQ$29</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="1"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>Anderson &amp; Andrew</t>
-  </si>
-  <si>
-    <t>Andrew</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1056,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$K$10" horiz="1" max="100" page="4" val="0"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2515,30 +2508,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:CC35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
-    <col min="12" max="227" width="0.42578125" customWidth="1"/>
-    <col min="228" max="251" width="0.42578125" style="7" customWidth="1"/>
-    <col min="252" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" customWidth="1"/>
+    <col min="12" max="227" width="0.5" customWidth="1"/>
+    <col min="228" max="251" width="0.5" style="7" customWidth="1"/>
+    <col min="252" max="16384" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:251" customFormat="1" ht="18">
@@ -2559,7 +2552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:251" ht="14.25">
+    <row r="3" spans="1:251" ht="15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2592,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>41072</v>
+        <v>41086</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -4006,13 +3999,13 @@
       <c r="IP11" s="52"/>
       <c r="IQ11" s="53"/>
     </row>
-    <row r="12" spans="1:251" s="22" customFormat="1" ht="10.5">
+    <row r="12" spans="1:251" s="22" customFormat="1" ht="10">
       <c r="A12" s="18"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="13" spans="1:251" s="20" customFormat="1" ht="10">
       <c r="A13" s="47"/>
       <c r="B13" s="48" t="s">
         <v>21</v>
@@ -4031,7 +4024,7 @@
       </c>
       <c r="G13" s="35">
         <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
-        <v>0.79651162790697672</v>
+        <v>0.84534883720930232</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
@@ -4039,14 +4032,14 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" ref="I13:I17" si="1">ROUNDDOWN(G13*F13,0)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J13" s="29">
         <f>F13-I13</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:251" s="23" customFormat="1" ht="19.5">
+    <row r="14" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A14" s="19"/>
       <c r="B14" s="50" t="s">
         <v>38</v>
@@ -4321,7 +4314,7 @@
       <c r="IP14" s="21"/>
       <c r="IQ14" s="21"/>
     </row>
-    <row r="15" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="15" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A15" s="19"/>
       <c r="B15" s="50" t="s">
         <v>41</v>
@@ -4596,7 +4589,7 @@
       <c r="IP15" s="21"/>
       <c r="IQ15" s="21"/>
     </row>
-    <row r="16" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="16" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A16" s="19"/>
       <c r="B16" s="50" t="s">
         <v>36</v>
@@ -4871,7 +4864,7 @@
       <c r="IP16" s="21"/>
       <c r="IQ16" s="21"/>
     </row>
-    <row r="17" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="17" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A17" s="19"/>
       <c r="B17" s="50" t="s">
         <v>35</v>
@@ -4890,7 +4883,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="34">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="0"/>
@@ -4898,11 +4891,11 @@
       </c>
       <c r="I17" s="12">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J17" s="30">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -5146,7 +5139,7 @@
       <c r="IP17" s="21"/>
       <c r="IQ17" s="21"/>
     </row>
-    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="18" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A18" s="19"/>
       <c r="B18" s="50" t="s">
         <v>22</v>
@@ -5165,7 +5158,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H18" s="30">
         <f>NETWORKDAYS(D18,E18)</f>
@@ -5173,11 +5166,11 @@
       </c>
       <c r="I18" s="12">
         <f>ROUNDDOWN(G18*F18,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J18" s="30">
         <f>F18-I18</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -5421,7 +5414,7 @@
       <c r="IP18" s="21"/>
       <c r="IQ18" s="21"/>
     </row>
-    <row r="19" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="19" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A19" s="49"/>
       <c r="B19" s="50" t="s">
         <v>23</v>
@@ -5696,7 +5689,7 @@
       <c r="IP19" s="21"/>
       <c r="IQ19" s="21"/>
     </row>
-    <row r="20" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="20" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A20" s="49"/>
       <c r="B20" s="50" t="s">
         <v>19</v>
@@ -5971,7 +5964,7 @@
       <c r="IP20" s="21"/>
       <c r="IQ20" s="21"/>
     </row>
-    <row r="21" spans="1:251" s="23" customFormat="1" ht="12" customHeight="1">
+    <row r="21" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A21" s="49"/>
       <c r="B21" s="50" t="s">
         <v>43</v>
@@ -6246,7 +6239,7 @@
       <c r="IP21" s="21"/>
       <c r="IQ21" s="21"/>
     </row>
-    <row r="22" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="22" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A22" s="49"/>
       <c r="B22" s="50" t="s">
         <v>37</v>
@@ -6521,7 +6514,7 @@
       <c r="IP22" s="21"/>
       <c r="IQ22" s="21"/>
     </row>
-    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="23" spans="1:251" s="20" customFormat="1" ht="10">
       <c r="A23" s="47"/>
       <c r="B23" s="48" t="s">
         <v>24</v>
@@ -6540,7 +6533,7 @@
       </c>
       <c r="G23" s="35">
         <f>SUMPRODUCT(F24:F28,G24:G28)/SUM(F24:F28)</f>
-        <v>0.30462962962962964</v>
+        <v>0.2986111111111111</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="13"/>
@@ -6555,13 +6548,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="24" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A24" s="19"/>
       <c r="B24" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D24" s="36">
         <v>41054</v>
@@ -6574,7 +6567,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="34">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H24" s="30">
         <f>NETWORKDAYS(D24,E24)</f>
@@ -6830,13 +6823,13 @@
       <c r="IP24" s="21"/>
       <c r="IQ24" s="21"/>
     </row>
-    <row r="25" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="25" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A25" s="19"/>
       <c r="B25" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D25" s="36">
         <v>41054</v>
@@ -6849,7 +6842,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="34">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="H25" s="30">
         <f>NETWORKDAYS(D25,E25)</f>
@@ -6857,11 +6850,11 @@
       </c>
       <c r="I25" s="12">
         <f>ROUNDDOWN(G25*F25,0)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J25" s="30">
         <f>F25-I25</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -7105,13 +7098,13 @@
       <c r="IP25" s="21"/>
       <c r="IQ25" s="21"/>
     </row>
-    <row r="26" spans="1:251" s="23" customFormat="1" ht="12.75" customHeight="1">
+    <row r="26" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D26" s="36">
         <v>41064</v>
@@ -7124,7 +7117,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="34">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" ref="H26" si="21">NETWORKDAYS(D26,E26)</f>
@@ -7132,11 +7125,11 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ref="I26" si="22">ROUNDDOWN(G26*F26,0)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J26" s="30">
         <f t="shared" ref="J26" si="23">F26-I26</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7380,13 +7373,13 @@
       <c r="IP26" s="21"/>
       <c r="IQ26" s="21"/>
     </row>
-    <row r="27" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="27" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A27" s="49"/>
       <c r="B27" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D27" s="36">
         <v>41070</v>
@@ -7655,13 +7648,13 @@
       <c r="IP27" s="21"/>
       <c r="IQ27" s="21"/>
     </row>
-    <row r="28" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="28" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A28" s="49"/>
       <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D28" s="36">
         <v>41054</v>
@@ -7674,7 +7667,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="34">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H28" s="30">
         <f>NETWORKDAYS(D28,E28)</f>
@@ -7682,11 +7675,11 @@
       </c>
       <c r="I28" s="12">
         <f>ROUNDDOWN(G28*F28,0)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J28" s="30">
         <f>F28-I28</f>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -7930,7 +7923,7 @@
       <c r="IP28" s="21"/>
       <c r="IQ28" s="21"/>
     </row>
-    <row r="29" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="29" spans="1:251" s="20" customFormat="1" ht="10">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
         <v>28</v>
@@ -7949,7 +7942,7 @@
       </c>
       <c r="G29" s="35">
         <f>SUMPRODUCT(F30:F33,G30:G33)/SUM(F30:F33)</f>
-        <v>0</v>
+        <v>0.15714285714285717</v>
       </c>
       <c r="H29" s="29">
         <f>NETWORKDAYS(D29,E29)</f>
@@ -7957,14 +7950,14 @@
       </c>
       <c r="I29" s="14">
         <f>ROUNDDOWN(G29*F29,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J29" s="29">
         <f>F29-I29</f>
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="30" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A30" s="19"/>
       <c r="B30" s="50" t="s">
         <v>30</v>
@@ -7983,7 +7976,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="34">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H30" s="30">
         <f>NETWORKDAYS(D30,E30)</f>
@@ -7991,11 +7984,11 @@
       </c>
       <c r="I30" s="12">
         <f>ROUNDDOWN(G30*F30,0)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" s="30">
         <f t="shared" ref="J30:J33" si="27">F30-I30</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -8239,7 +8232,7 @@
       <c r="IP30" s="21"/>
       <c r="IQ30" s="21"/>
     </row>
-    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="31" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A31" s="19"/>
       <c r="B31" s="50" t="s">
         <v>31</v>
@@ -8514,7 +8507,7 @@
       <c r="IP31" s="21"/>
       <c r="IQ31" s="21"/>
     </row>
-    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="32" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A32" s="49"/>
       <c r="B32" s="50" t="s">
         <v>32</v>
@@ -8789,7 +8782,7 @@
       <c r="IP32" s="21"/>
       <c r="IQ32" s="21"/>
     </row>
-    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="33" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A33" s="49"/>
       <c r="B33" s="50" t="s">
         <v>42</v>
@@ -9064,7 +9057,7 @@
       <c r="IP33" s="21"/>
       <c r="IQ33" s="21"/>
     </row>
-    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.5">
+    <row r="34" spans="1:251" s="20" customFormat="1" ht="10">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
         <v>33</v>
@@ -9098,7 +9091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.5">
+    <row r="35" spans="1:251" s="23" customFormat="1" ht="10">
       <c r="A35" s="19"/>
       <c r="B35" s="50" t="s">
         <v>19</v>
@@ -9452,7 +9445,7 @@
     <hyperlink ref="A1" r:id="rId2" tooltip="Link to Vertex42.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="75" orientation="landscape"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
@@ -9465,7 +9458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -9473,7 +9466,7 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="19440" windowHeight="15600"/>
+    <workbookView xWindow="-24" yWindow="-24" windowWidth="16608" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Days Remaining</t>
   </si>
@@ -570,6 +570,9 @@
   </si>
   <si>
     <t>Anderson &amp; Andrew</t>
+  </si>
+  <si>
+    <t>Andrew</t>
   </si>
 </sst>
 </file>
@@ -2508,33 +2511,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" codeName="Sheet1" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:CC35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DR37" sqref="DR37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
     <col min="6" max="6" width="4.6640625" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="227" width="0.5" customWidth="1"/>
-    <col min="228" max="251" width="0.5" style="7" customWidth="1"/>
-    <col min="252" max="16384" width="9.1640625" style="7"/>
+    <col min="12" max="227" width="0.44140625" customWidth="1"/>
+    <col min="228" max="251" width="0.44140625" style="7" customWidth="1"/>
+    <col min="252" max="16384" width="9.109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:251" customFormat="1" ht="18">
+    <row r="1" spans="1:251" customFormat="1" ht="17.399999999999999">
       <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:251" ht="15">
+    <row r="3" spans="1:251" ht="15.6">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>41086</v>
+        <v>41093</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -3999,13 +4002,13 @@
       <c r="IP11" s="52"/>
       <c r="IQ11" s="53"/>
     </row>
-    <row r="12" spans="1:251" s="22" customFormat="1" ht="10">
+    <row r="12" spans="1:251" s="22" customFormat="1" ht="10.199999999999999">
       <c r="A12" s="18"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:251" s="20" customFormat="1" ht="10">
+    <row r="13" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
       <c r="A13" s="47"/>
       <c r="B13" s="48" t="s">
         <v>21</v>
@@ -4024,7 +4027,7 @@
       </c>
       <c r="G13" s="35">
         <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
-        <v>0.84534883720930232</v>
+        <v>0.98255813953488369</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
@@ -4032,14 +4035,14 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" ref="I13:I17" si="1">ROUNDDOWN(G13*F13,0)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J13" s="29">
         <f>F13-I13</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="14" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A14" s="19"/>
       <c r="B14" s="50" t="s">
         <v>38</v>
@@ -4314,7 +4317,7 @@
       <c r="IP14" s="21"/>
       <c r="IQ14" s="21"/>
     </row>
-    <row r="15" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="15" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A15" s="19"/>
       <c r="B15" s="50" t="s">
         <v>41</v>
@@ -4589,7 +4592,7 @@
       <c r="IP15" s="21"/>
       <c r="IQ15" s="21"/>
     </row>
-    <row r="16" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="16" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A16" s="19"/>
       <c r="B16" s="50" t="s">
         <v>36</v>
@@ -4864,7 +4867,7 @@
       <c r="IP16" s="21"/>
       <c r="IQ16" s="21"/>
     </row>
-    <row r="17" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="17" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A17" s="19"/>
       <c r="B17" s="50" t="s">
         <v>35</v>
@@ -4883,7 +4886,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="34">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H17" s="30">
         <f t="shared" si="0"/>
@@ -4891,11 +4894,11 @@
       </c>
       <c r="I17" s="12">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="30">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
@@ -5139,7 +5142,7 @@
       <c r="IP17" s="21"/>
       <c r="IQ17" s="21"/>
     </row>
-    <row r="18" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A18" s="19"/>
       <c r="B18" s="50" t="s">
         <v>22</v>
@@ -5158,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="34">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H18" s="30">
         <f>NETWORKDAYS(D18,E18)</f>
@@ -5166,11 +5169,11 @@
       </c>
       <c r="I18" s="12">
         <f>ROUNDDOWN(G18*F18,0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J18" s="30">
         <f>F18-I18</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
@@ -5414,7 +5417,7 @@
       <c r="IP18" s="21"/>
       <c r="IQ18" s="21"/>
     </row>
-    <row r="19" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="19" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A19" s="49"/>
       <c r="B19" s="50" t="s">
         <v>23</v>
@@ -5433,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="34">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" ref="H19:H23" si="13">NETWORKDAYS(D19,E19)</f>
@@ -5441,11 +5444,11 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ref="I19:I23" si="14">ROUNDDOWN(G19*F19,0)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" ref="J19:J22" si="15">F19-I19</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -5689,13 +5692,13 @@
       <c r="IP19" s="21"/>
       <c r="IQ19" s="21"/>
     </row>
-    <row r="20" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="20" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A20" s="49"/>
       <c r="B20" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D20" s="36">
         <v>41036</v>
@@ -5964,7 +5967,7 @@
       <c r="IP20" s="21"/>
       <c r="IQ20" s="21"/>
     </row>
-    <row r="21" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="21" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A21" s="49"/>
       <c r="B21" s="50" t="s">
         <v>43</v>
@@ -6239,13 +6242,13 @@
       <c r="IP21" s="21"/>
       <c r="IQ21" s="21"/>
     </row>
-    <row r="22" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="22" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A22" s="49"/>
       <c r="B22" s="50" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D22" s="36">
         <v>41056</v>
@@ -6514,7 +6517,7 @@
       <c r="IP22" s="21"/>
       <c r="IQ22" s="21"/>
     </row>
-    <row r="23" spans="1:251" s="20" customFormat="1" ht="10">
+    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
       <c r="A23" s="47"/>
       <c r="B23" s="48" t="s">
         <v>24</v>
@@ -6533,7 +6536,7 @@
       </c>
       <c r="G23" s="35">
         <f>SUMPRODUCT(F24:F28,G24:G28)/SUM(F24:F28)</f>
-        <v>0.2986111111111111</v>
+        <v>0.62175925925925923</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="13"/>
@@ -6541,20 +6544,20 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J23" s="29">
         <f>F23-I23</f>
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A24" s="19"/>
       <c r="B24" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D24" s="36">
         <v>41054</v>
@@ -6567,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="34">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="H24" s="30">
         <f>NETWORKDAYS(D24,E24)</f>
@@ -6823,13 +6826,13 @@
       <c r="IP24" s="21"/>
       <c r="IQ24" s="21"/>
     </row>
-    <row r="25" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="25" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A25" s="19"/>
       <c r="B25" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D25" s="36">
         <v>41054</v>
@@ -6842,7 +6845,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="34">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="H25" s="30">
         <f>NETWORKDAYS(D25,E25)</f>
@@ -6850,11 +6853,11 @@
       </c>
       <c r="I25" s="12">
         <f>ROUNDDOWN(G25*F25,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J25" s="30">
         <f>F25-I25</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -7098,13 +7101,13 @@
       <c r="IP25" s="21"/>
       <c r="IQ25" s="21"/>
     </row>
-    <row r="26" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="26" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D26" s="36">
         <v>41064</v>
@@ -7117,7 +7120,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="34">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" ref="H26" si="21">NETWORKDAYS(D26,E26)</f>
@@ -7125,11 +7128,11 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ref="I26" si="22">ROUNDDOWN(G26*F26,0)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J26" s="30">
         <f t="shared" ref="J26" si="23">F26-I26</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7373,13 +7376,13 @@
       <c r="IP26" s="21"/>
       <c r="IQ26" s="21"/>
     </row>
-    <row r="27" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="27" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A27" s="49"/>
       <c r="B27" s="50" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D27" s="36">
         <v>41070</v>
@@ -7648,13 +7651,13 @@
       <c r="IP27" s="21"/>
       <c r="IQ27" s="21"/>
     </row>
-    <row r="28" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="28" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A28" s="49"/>
       <c r="B28" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D28" s="36">
         <v>41054</v>
@@ -7667,7 +7670,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="34">
-        <v>0.1</v>
+        <v>0.85</v>
       </c>
       <c r="H28" s="30">
         <f>NETWORKDAYS(D28,E28)</f>
@@ -7675,11 +7678,11 @@
       </c>
       <c r="I28" s="12">
         <f>ROUNDDOWN(G28*F28,0)</f>
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="J28" s="30">
         <f>F28-I28</f>
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -7923,7 +7926,7 @@
       <c r="IP28" s="21"/>
       <c r="IQ28" s="21"/>
     </row>
-    <row r="29" spans="1:251" s="20" customFormat="1" ht="10">
+    <row r="29" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
         <v>28</v>
@@ -7957,13 +7960,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="30" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A30" s="19"/>
       <c r="B30" s="50" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D30" s="36">
         <v>41069</v>
@@ -8232,7 +8235,7 @@
       <c r="IP30" s="21"/>
       <c r="IQ30" s="21"/>
     </row>
-    <row r="31" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A31" s="19"/>
       <c r="B31" s="50" t="s">
         <v>31</v>
@@ -8507,7 +8510,7 @@
       <c r="IP31" s="21"/>
       <c r="IQ31" s="21"/>
     </row>
-    <row r="32" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A32" s="49"/>
       <c r="B32" s="50" t="s">
         <v>32</v>
@@ -8782,7 +8785,7 @@
       <c r="IP32" s="21"/>
       <c r="IQ32" s="21"/>
     </row>
-    <row r="33" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A33" s="49"/>
       <c r="B33" s="50" t="s">
         <v>42</v>
@@ -9057,7 +9060,7 @@
       <c r="IP33" s="21"/>
       <c r="IQ33" s="21"/>
     </row>
-    <row r="34" spans="1:251" s="20" customFormat="1" ht="10">
+    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
         <v>33</v>
@@ -9091,7 +9094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:251" s="23" customFormat="1" ht="10">
+    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
       <c r="A35" s="19"/>
       <c r="B35" s="50" t="s">
         <v>19</v>
@@ -9368,38 +9371,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="HD11:HH11"/>
-    <mergeCell ref="HI11:HM11"/>
-    <mergeCell ref="HN11:HR11"/>
-    <mergeCell ref="HS11:HW11"/>
-    <mergeCell ref="GJ11:GN11"/>
-    <mergeCell ref="GO11:GS11"/>
-    <mergeCell ref="GT11:GX11"/>
-    <mergeCell ref="GY11:HC11"/>
-    <mergeCell ref="FP11:FT11"/>
-    <mergeCell ref="FU11:FY11"/>
-    <mergeCell ref="FZ11:GD11"/>
-    <mergeCell ref="GE11:GI11"/>
-    <mergeCell ref="EV11:EZ11"/>
-    <mergeCell ref="FA11:FE11"/>
-    <mergeCell ref="FF11:FJ11"/>
-    <mergeCell ref="FK11:FO11"/>
-    <mergeCell ref="EB11:EF11"/>
-    <mergeCell ref="EG11:EK11"/>
-    <mergeCell ref="EL11:EP11"/>
-    <mergeCell ref="EQ11:EU11"/>
-    <mergeCell ref="DH11:DL11"/>
-    <mergeCell ref="DM11:DQ11"/>
-    <mergeCell ref="DR11:DV11"/>
-    <mergeCell ref="DW11:EA11"/>
-    <mergeCell ref="CN11:CR11"/>
-    <mergeCell ref="CS11:CW11"/>
-    <mergeCell ref="CX11:DB11"/>
-    <mergeCell ref="DC11:DG11"/>
-    <mergeCell ref="BT11:BX11"/>
-    <mergeCell ref="BY11:CC11"/>
-    <mergeCell ref="CD11:CH11"/>
-    <mergeCell ref="CI11:CM11"/>
     <mergeCell ref="IH11:IL11"/>
     <mergeCell ref="IM11:IQ11"/>
     <mergeCell ref="L11:P11"/>
@@ -9416,6 +9387,38 @@
     <mergeCell ref="AK11:AO11"/>
     <mergeCell ref="AP11:AT11"/>
     <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="CN11:CR11"/>
+    <mergeCell ref="CS11:CW11"/>
+    <mergeCell ref="CX11:DB11"/>
+    <mergeCell ref="DC11:DG11"/>
+    <mergeCell ref="BT11:BX11"/>
+    <mergeCell ref="BY11:CC11"/>
+    <mergeCell ref="CD11:CH11"/>
+    <mergeCell ref="CI11:CM11"/>
+    <mergeCell ref="EB11:EF11"/>
+    <mergeCell ref="EG11:EK11"/>
+    <mergeCell ref="EL11:EP11"/>
+    <mergeCell ref="EQ11:EU11"/>
+    <mergeCell ref="DH11:DL11"/>
+    <mergeCell ref="DM11:DQ11"/>
+    <mergeCell ref="DR11:DV11"/>
+    <mergeCell ref="DW11:EA11"/>
+    <mergeCell ref="FP11:FT11"/>
+    <mergeCell ref="FU11:FY11"/>
+    <mergeCell ref="FZ11:GD11"/>
+    <mergeCell ref="GE11:GI11"/>
+    <mergeCell ref="EV11:EZ11"/>
+    <mergeCell ref="FA11:FE11"/>
+    <mergeCell ref="FF11:FJ11"/>
+    <mergeCell ref="FK11:FO11"/>
+    <mergeCell ref="HD11:HH11"/>
+    <mergeCell ref="HI11:HM11"/>
+    <mergeCell ref="HN11:HR11"/>
+    <mergeCell ref="HS11:HW11"/>
+    <mergeCell ref="GJ11:GN11"/>
+    <mergeCell ref="GO11:GS11"/>
+    <mergeCell ref="GT11:GX11"/>
+    <mergeCell ref="GY11:HC11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L13:IQ13 L30:IQ30 L24:IQ24 L35:IQ35">
@@ -9458,7 +9461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -9466,7 +9469,7 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -2517,8 +2517,8 @@
   </sheetPr>
   <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="DR37" sqref="DR37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -2588,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>41093</v>
+        <v>41101</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="G13" s="35">
         <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
-        <v>0.98255813953488369</v>
+        <v>0.9941860465116279</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
@@ -5436,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="34">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" ref="H19:H23" si="13">NETWORKDAYS(D19,E19)</f>
@@ -5444,11 +5444,11 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ref="I19:I23" si="14">ROUNDDOWN(G19*F19,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" ref="J19:J22" si="15">F19-I19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="G23" s="35">
         <f>SUMPRODUCT(F24:F28,G24:G28)/SUM(F24:F28)</f>
-        <v>0.62175925925925923</v>
+        <v>0.78287037037037033</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="13"/>
@@ -6544,11 +6544,11 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J23" s="29">
         <f>F23-I23</f>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
@@ -6845,7 +6845,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="34">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="30">
         <f>NETWORKDAYS(D25,E25)</f>
@@ -6853,11 +6853,11 @@
       </c>
       <c r="I25" s="12">
         <f>ROUNDDOWN(G25*F25,0)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J25" s="30">
         <f>F25-I25</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -7395,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="34">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" ref="H27" si="24">NETWORKDAYS(D27,E27)</f>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="I27" s="12">
         <f t="shared" ref="I27" si="25">ROUNDDOWN(G27*F27,0)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J27" s="30">
         <f>F27-I27</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -7670,7 +7670,7 @@
         <v>36</v>
       </c>
       <c r="G28" s="34">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H28" s="30">
         <f>NETWORKDAYS(D28,E28)</f>
@@ -7678,11 +7678,11 @@
       </c>
       <c r="I28" s="12">
         <f>ROUNDDOWN(G28*F28,0)</f>
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J28" s="30">
         <f>F28-I28</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="G29" s="35">
         <f>SUMPRODUCT(F30:F33,G30:G33)/SUM(F30:F33)</f>
-        <v>0.15714285714285717</v>
+        <v>0.25892857142857145</v>
       </c>
       <c r="H29" s="29">
         <f>NETWORKDAYS(D29,E29)</f>
@@ -7953,11 +7953,11 @@
       </c>
       <c r="I29" s="14">
         <f>ROUNDDOWN(G29*F29,0)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J29" s="29">
         <f>F29-I29</f>
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
@@ -7979,7 +7979,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="34">
-        <v>0.55000000000000004</v>
+        <v>0.75</v>
       </c>
       <c r="H30" s="30">
         <f>NETWORKDAYS(D30,E30)</f>
@@ -7987,11 +7987,11 @@
       </c>
       <c r="I30" s="12">
         <f>ROUNDDOWN(G30*F30,0)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J30" s="30">
         <f t="shared" ref="J30:J33" si="27">F30-I30</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -8254,7 +8254,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H31" s="30">
         <f>NETWORKDAYS(D31,E31)</f>
@@ -8262,11 +8262,11 @@
       </c>
       <c r="I31" s="12">
         <f>ROUNDDOWN(G31*F31,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" s="30">
         <f t="shared" si="27"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
@@ -9371,6 +9371,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="HD11:HH11"/>
+    <mergeCell ref="HI11:HM11"/>
+    <mergeCell ref="HN11:HR11"/>
+    <mergeCell ref="HS11:HW11"/>
+    <mergeCell ref="GJ11:GN11"/>
+    <mergeCell ref="GO11:GS11"/>
+    <mergeCell ref="GT11:GX11"/>
+    <mergeCell ref="GY11:HC11"/>
+    <mergeCell ref="FP11:FT11"/>
+    <mergeCell ref="FU11:FY11"/>
+    <mergeCell ref="FZ11:GD11"/>
+    <mergeCell ref="GE11:GI11"/>
+    <mergeCell ref="EV11:EZ11"/>
+    <mergeCell ref="FA11:FE11"/>
+    <mergeCell ref="FF11:FJ11"/>
+    <mergeCell ref="FK11:FO11"/>
+    <mergeCell ref="EB11:EF11"/>
+    <mergeCell ref="EG11:EK11"/>
+    <mergeCell ref="EL11:EP11"/>
+    <mergeCell ref="EQ11:EU11"/>
+    <mergeCell ref="DH11:DL11"/>
+    <mergeCell ref="DM11:DQ11"/>
+    <mergeCell ref="DR11:DV11"/>
+    <mergeCell ref="DW11:EA11"/>
+    <mergeCell ref="CN11:CR11"/>
+    <mergeCell ref="CS11:CW11"/>
+    <mergeCell ref="CX11:DB11"/>
+    <mergeCell ref="DC11:DG11"/>
+    <mergeCell ref="BT11:BX11"/>
+    <mergeCell ref="BY11:CC11"/>
+    <mergeCell ref="CD11:CH11"/>
+    <mergeCell ref="CI11:CM11"/>
     <mergeCell ref="IH11:IL11"/>
     <mergeCell ref="IM11:IQ11"/>
     <mergeCell ref="L11:P11"/>
@@ -9387,38 +9419,6 @@
     <mergeCell ref="AK11:AO11"/>
     <mergeCell ref="AP11:AT11"/>
     <mergeCell ref="AU11:AY11"/>
-    <mergeCell ref="CN11:CR11"/>
-    <mergeCell ref="CS11:CW11"/>
-    <mergeCell ref="CX11:DB11"/>
-    <mergeCell ref="DC11:DG11"/>
-    <mergeCell ref="BT11:BX11"/>
-    <mergeCell ref="BY11:CC11"/>
-    <mergeCell ref="CD11:CH11"/>
-    <mergeCell ref="CI11:CM11"/>
-    <mergeCell ref="EB11:EF11"/>
-    <mergeCell ref="EG11:EK11"/>
-    <mergeCell ref="EL11:EP11"/>
-    <mergeCell ref="EQ11:EU11"/>
-    <mergeCell ref="DH11:DL11"/>
-    <mergeCell ref="DM11:DQ11"/>
-    <mergeCell ref="DR11:DV11"/>
-    <mergeCell ref="DW11:EA11"/>
-    <mergeCell ref="FP11:FT11"/>
-    <mergeCell ref="FU11:FY11"/>
-    <mergeCell ref="FZ11:GD11"/>
-    <mergeCell ref="GE11:GI11"/>
-    <mergeCell ref="EV11:EZ11"/>
-    <mergeCell ref="FA11:FE11"/>
-    <mergeCell ref="FF11:FJ11"/>
-    <mergeCell ref="FK11:FO11"/>
-    <mergeCell ref="HD11:HH11"/>
-    <mergeCell ref="HI11:HM11"/>
-    <mergeCell ref="HN11:HR11"/>
-    <mergeCell ref="HS11:HW11"/>
-    <mergeCell ref="GJ11:GN11"/>
-    <mergeCell ref="GO11:GS11"/>
-    <mergeCell ref="GT11:GX11"/>
-    <mergeCell ref="GY11:HC11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L13:IQ13 L30:IQ30 L24:IQ24 L35:IQ35">

--- a/Weekly-Reports/Gantt-Chart.xlsx
+++ b/Weekly-Reports/Gantt-Chart.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="-24" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="-30" yWindow="-30" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="8" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">GanttChart!$A$3:$IQ$29</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="1"/>
@@ -2517,27 +2517,27 @@
   </sheetPr>
   <dimension ref="A1:IQ35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:CW37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" customWidth="1"/>
-    <col min="12" max="227" width="0.44140625" customWidth="1"/>
-    <col min="228" max="251" width="0.44140625" style="7" customWidth="1"/>
-    <col min="252" max="16384" width="9.109375" style="7"/>
+    <col min="1" max="1" width="4.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="12" max="227" width="0.42578125" customWidth="1"/>
+    <col min="228" max="251" width="0.42578125" style="7" customWidth="1"/>
+    <col min="252" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:251" customFormat="1" ht="17.399999999999999">
+    <row r="1" spans="1:251" customFormat="1" ht="18">
       <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:251" ht="15.6">
+    <row r="3" spans="1:251" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>41101</v>
+        <v>41107</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
@@ -4002,13 +4002,13 @@
       <c r="IP11" s="52"/>
       <c r="IQ11" s="53"/>
     </row>
-    <row r="12" spans="1:251" s="22" customFormat="1" ht="10.199999999999999">
+    <row r="12" spans="1:251" s="22" customFormat="1" ht="10.5">
       <c r="A12" s="18"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
+    <row r="13" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A13" s="47"/>
       <c r="B13" s="48" t="s">
         <v>21</v>
@@ -4027,7 +4027,7 @@
       </c>
       <c r="G13" s="35">
         <f>SUMPRODUCT(F15:F22,G15:G22)/SUM(F15:F22)</f>
-        <v>0.9941860465116279</v>
+        <v>1</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" ref="H13:H17" si="0">NETWORKDAYS(D13,E13)</f>
@@ -4035,14 +4035,14 @@
       </c>
       <c r="I13" s="14">
         <f t="shared" ref="I13:I17" si="1">ROUNDDOWN(G13*F13,0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="29">
         <f>F13-I13</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="14" spans="1:251" s="23" customFormat="1" ht="19.5">
       <c r="A14" s="19"/>
       <c r="B14" s="50" t="s">
         <v>38</v>
@@ -4317,7 +4317,7 @@
       <c r="IP14" s="21"/>
       <c r="IQ14" s="21"/>
     </row>
-    <row r="15" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="15" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A15" s="19"/>
       <c r="B15" s="50" t="s">
         <v>41</v>
@@ -4592,7 +4592,7 @@
       <c r="IP15" s="21"/>
       <c r="IQ15" s="21"/>
     </row>
-    <row r="16" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="16" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A16" s="19"/>
       <c r="B16" s="50" t="s">
         <v>36</v>
@@ -4867,7 +4867,7 @@
       <c r="IP16" s="21"/>
       <c r="IQ16" s="21"/>
     </row>
-    <row r="17" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="17" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A17" s="19"/>
       <c r="B17" s="50" t="s">
         <v>35</v>
@@ -5142,7 +5142,7 @@
       <c r="IP17" s="21"/>
       <c r="IQ17" s="21"/>
     </row>
-    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="18" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A18" s="19"/>
       <c r="B18" s="50" t="s">
         <v>22</v>
@@ -5417,7 +5417,7 @@
       <c r="IP18" s="21"/>
       <c r="IQ18" s="21"/>
     </row>
-    <row r="19" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="19" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A19" s="49"/>
       <c r="B19" s="50" t="s">
         <v>23</v>
@@ -5436,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H19" s="30">
         <f t="shared" ref="H19:H23" si="13">NETWORKDAYS(D19,E19)</f>
@@ -5444,11 +5444,11 @@
       </c>
       <c r="I19" s="12">
         <f t="shared" ref="I19:I23" si="14">ROUNDDOWN(G19*F19,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" s="30">
         <f t="shared" ref="J19:J22" si="15">F19-I19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
@@ -5692,7 +5692,7 @@
       <c r="IP19" s="21"/>
       <c r="IQ19" s="21"/>
     </row>
-    <row r="20" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="20" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A20" s="49"/>
       <c r="B20" s="50" t="s">
         <v>19</v>
@@ -5967,7 +5967,7 @@
       <c r="IP20" s="21"/>
       <c r="IQ20" s="21"/>
     </row>
-    <row r="21" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="21" spans="1:251" s="23" customFormat="1" ht="19.5">
       <c r="A21" s="49"/>
       <c r="B21" s="50" t="s">
         <v>43</v>
@@ -6242,7 +6242,7 @@
       <c r="IP21" s="21"/>
       <c r="IQ21" s="21"/>
     </row>
-    <row r="22" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="22" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A22" s="49"/>
       <c r="B22" s="50" t="s">
         <v>37</v>
@@ -6517,7 +6517,7 @@
       <c r="IP22" s="21"/>
       <c r="IQ22" s="21"/>
     </row>
-    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
+    <row r="23" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A23" s="47"/>
       <c r="B23" s="48" t="s">
         <v>24</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="G23" s="35">
         <f>SUMPRODUCT(F24:F28,G24:G28)/SUM(F24:F28)</f>
-        <v>0.78287037037037033</v>
+        <v>0.9375</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="13"/>
@@ -6544,14 +6544,14 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="14"/>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="J23" s="29">
         <f>F23-I23</f>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="24" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A24" s="19"/>
       <c r="B24" s="50" t="s">
         <v>29</v>
@@ -6570,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="H24" s="30">
         <f>NETWORKDAYS(D24,E24)</f>
@@ -6578,11 +6578,11 @@
       </c>
       <c r="I24" s="12">
         <f>ROUNDDOWN(G24*F24,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="30">
         <f>F24-I24</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
@@ -6826,7 +6826,7 @@
       <c r="IP24" s="21"/>
       <c r="IQ24" s="21"/>
     </row>
-    <row r="25" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="25" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A25" s="19"/>
       <c r="B25" s="50" t="s">
         <v>25</v>
@@ -6845,7 +6845,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="34">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="H25" s="30">
         <f>NETWORKDAYS(D25,E25)</f>
@@ -6853,11 +6853,11 @@
       </c>
       <c r="I25" s="12">
         <f>ROUNDDOWN(G25*F25,0)</f>
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J25" s="30">
         <f>F25-I25</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
@@ -7101,7 +7101,7 @@
       <c r="IP25" s="21"/>
       <c r="IQ25" s="21"/>
     </row>
-    <row r="26" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="26" spans="1:251" s="23" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="19"/>
       <c r="B26" s="50" t="s">
         <v>26</v>
@@ -7120,7 +7120,7 @@
         <v>26</v>
       </c>
       <c r="G26" s="34">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="H26" s="30">
         <f t="shared" ref="H26" si="21">NETWORKDAYS(D26,E26)</f>
@@ -7128,11 +7128,11 @@
       </c>
       <c r="I26" s="12">
         <f t="shared" ref="I26" si="22">ROUNDDOWN(G26*F26,0)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J26" s="30">
         <f t="shared" ref="J26" si="23">F26-I26</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
@@ -7376,7 +7376,7 @@
       <c r="IP26" s="21"/>
       <c r="IQ26" s="21"/>
     </row>
-    <row r="27" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="27" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A27" s="49"/>
       <c r="B27" s="50" t="s">
         <v>27</v>
@@ -7395,7 +7395,7 @@
         <v>20</v>
       </c>
       <c r="G27" s="34">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="H27" s="30">
         <f t="shared" ref="H27" si="24">NETWORKDAYS(D27,E27)</f>
@@ -7403,11 +7403,11 @@
       </c>
       <c r="I27" s="12">
         <f t="shared" ref="I27" si="25">ROUNDDOWN(G27*F27,0)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J27" s="30">
         <f>F27-I27</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
@@ -7651,7 +7651,7 @@
       <c r="IP27" s="21"/>
       <c r="IQ27" s="21"/>
     </row>
-    <row r="28" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="28" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A28" s="49"/>
       <c r="B28" s="50" t="s">
         <v>19</v>
@@ -7926,7 +7926,7 @@
       <c r="IP28" s="21"/>
       <c r="IQ28" s="21"/>
     </row>
-    <row r="29" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
+    <row r="29" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A29" s="47"/>
       <c r="B29" s="48" t="s">
         <v>28</v>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="G29" s="35">
         <f>SUMPRODUCT(F30:F33,G30:G33)/SUM(F30:F33)</f>
-        <v>0.25892857142857145</v>
+        <v>0.41428571428571426</v>
       </c>
       <c r="H29" s="29">
         <f>NETWORKDAYS(D29,E29)</f>
@@ -7953,14 +7953,14 @@
       </c>
       <c r="I29" s="14">
         <f>ROUNDDOWN(G29*F29,0)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J29" s="29">
         <f>F29-I29</f>
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="30" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A30" s="19"/>
       <c r="B30" s="50" t="s">
         <v>30</v>
@@ -7979,7 +7979,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="34">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="H30" s="30">
         <f>NETWORKDAYS(D30,E30)</f>
@@ -7987,11 +7987,11 @@
       </c>
       <c r="I30" s="12">
         <f>ROUNDDOWN(G30*F30,0)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J30" s="30">
         <f t="shared" ref="J30:J33" si="27">F30-I30</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
@@ -8235,7 +8235,7 @@
       <c r="IP30" s="21"/>
       <c r="IQ30" s="21"/>
     </row>
-    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="31" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A31" s="19"/>
       <c r="B31" s="50" t="s">
         <v>31</v>
@@ -8254,7 +8254,7 @@
         <v>10</v>
       </c>
       <c r="G31" s="34">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="H31" s="30">
         <f>NETWORKDAYS(D31,E31)</f>
@@ -8262,11 +8262,11 @@
       </c>
       <c r="I31" s="12">
         <f>ROUNDDOWN(G31*F31,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" s="30">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
@@ -8510,7 +8510,7 @@
       <c r="IP31" s="21"/>
       <c r="IQ31" s="21"/>
     </row>
-    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="32" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A32" s="49"/>
       <c r="B32" s="50" t="s">
         <v>32</v>
@@ -8529,7 +8529,7 @@
         <v>15</v>
       </c>
       <c r="G32" s="34">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H32" s="30">
         <f t="shared" ref="H32:H33" si="28">NETWORKDAYS(D32,E32)</f>
@@ -8537,11 +8537,11 @@
       </c>
       <c r="I32" s="12">
         <f t="shared" ref="I32:I33" si="29">ROUNDDOWN(G32*F32,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" s="30">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K32" s="21"/>
       <c r="L32" s="21"/>
@@ -8785,7 +8785,7 @@
       <c r="IP32" s="21"/>
       <c r="IQ32" s="21"/>
     </row>
-    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="33" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A33" s="49"/>
       <c r="B33" s="50" t="s">
         <v>42</v>
@@ -9060,7 +9060,7 @@
       <c r="IP33" s="21"/>
       <c r="IQ33" s="21"/>
     </row>
-    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.199999999999999">
+    <row r="34" spans="1:251" s="20" customFormat="1" ht="10.5">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
         <v>33</v>
@@ -9094,7 +9094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.199999999999999">
+    <row r="35" spans="1:251" s="23" customFormat="1" ht="10.5">
       <c r="A35" s="19"/>
       <c r="B35" s="50" t="s">
         <v>19</v>
@@ -9371,38 +9371,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="HD11:HH11"/>
-    <mergeCell ref="HI11:HM11"/>
-    <mergeCell ref="HN11:HR11"/>
-    <mergeCell ref="HS11:HW11"/>
-    <mergeCell ref="GJ11:GN11"/>
-    <mergeCell ref="GO11:GS11"/>
-    <mergeCell ref="GT11:GX11"/>
-    <mergeCell ref="GY11:HC11"/>
-    <mergeCell ref="FP11:FT11"/>
-    <mergeCell ref="FU11:FY11"/>
-    <mergeCell ref="FZ11:GD11"/>
-    <mergeCell ref="GE11:GI11"/>
-    <mergeCell ref="EV11:EZ11"/>
-    <mergeCell ref="FA11:FE11"/>
-    <mergeCell ref="FF11:FJ11"/>
-    <mergeCell ref="FK11:FO11"/>
-    <mergeCell ref="EB11:EF11"/>
-    <mergeCell ref="EG11:EK11"/>
-    <mergeCell ref="EL11:EP11"/>
-    <mergeCell ref="EQ11:EU11"/>
-    <mergeCell ref="DH11:DL11"/>
-    <mergeCell ref="DM11:DQ11"/>
-    <mergeCell ref="DR11:DV11"/>
-    <mergeCell ref="DW11:EA11"/>
-    <mergeCell ref="CN11:CR11"/>
-    <mergeCell ref="CS11:CW11"/>
-    <mergeCell ref="CX11:DB11"/>
-    <mergeCell ref="DC11:DG11"/>
-    <mergeCell ref="BT11:BX11"/>
-    <mergeCell ref="BY11:CC11"/>
-    <mergeCell ref="CD11:CH11"/>
-    <mergeCell ref="CI11:CM11"/>
     <mergeCell ref="IH11:IL11"/>
     <mergeCell ref="IM11:IQ11"/>
     <mergeCell ref="L11:P11"/>
@@ -9419,6 +9387,38 @@
     <mergeCell ref="AK11:AO11"/>
     <mergeCell ref="AP11:AT11"/>
     <mergeCell ref="AU11:AY11"/>
+    <mergeCell ref="CN11:CR11"/>
+    <mergeCell ref="CS11:CW11"/>
+    <mergeCell ref="CX11:DB11"/>
+    <mergeCell ref="DC11:DG11"/>
+    <mergeCell ref="BT11:BX11"/>
+    <mergeCell ref="BY11:CC11"/>
+    <mergeCell ref="CD11:CH11"/>
+    <mergeCell ref="CI11:CM11"/>
+    <mergeCell ref="EB11:EF11"/>
+    <mergeCell ref="EG11:EK11"/>
+    <mergeCell ref="EL11:EP11"/>
+    <mergeCell ref="EQ11:EU11"/>
+    <mergeCell ref="DH11:DL11"/>
+    <mergeCell ref="DM11:DQ11"/>
+    <mergeCell ref="DR11:DV11"/>
+    <mergeCell ref="DW11:EA11"/>
+    <mergeCell ref="FP11:FT11"/>
+    <mergeCell ref="FU11:FY11"/>
+    <mergeCell ref="FZ11:GD11"/>
+    <mergeCell ref="GE11:GI11"/>
+    <mergeCell ref="EV11:EZ11"/>
+    <mergeCell ref="FA11:FE11"/>
+    <mergeCell ref="FF11:FJ11"/>
+    <mergeCell ref="FK11:FO11"/>
+    <mergeCell ref="HD11:HH11"/>
+    <mergeCell ref="HI11:HM11"/>
+    <mergeCell ref="HN11:HR11"/>
+    <mergeCell ref="HS11:HW11"/>
+    <mergeCell ref="GJ11:GN11"/>
+    <mergeCell ref="GO11:GS11"/>
+    <mergeCell ref="GT11:GX11"/>
+    <mergeCell ref="GY11:HC11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="L13:IQ13 L30:IQ30 L24:IQ24 L35:IQ35">
@@ -9469,7 +9469,7 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
